--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6B262-F9B7-4F18-B577-F39CBC92E658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D6AA8-6C85-4C0B-92F9-E92F7FF03AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1500" windowWidth="26130" windowHeight="17685" firstSheet="2" activeTab="10" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="9585" yWindow="3045" windowWidth="34080" windowHeight="15450" firstSheet="1" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
     <sheet name="&lt;zall&gt;DEVEXPORT" sheetId="11" r:id="rId2"/>
-    <sheet name="BD" sheetId="4" r:id="rId3"/>
-    <sheet name="BDКаб" sheetId="13" r:id="rId4"/>
-    <sheet name="BDKc" sheetId="12" r:id="rId5"/>
-    <sheet name="&lt;zmain&gt;SET" sheetId="8" r:id="rId6"/>
-    <sheet name="&lt;zmain&gt;DEVEXPORT" sheetId="9" r:id="rId7"/>
-    <sheet name="&lt;zmain&gt;" sheetId="10" r:id="rId8"/>
-    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId9"/>
-    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId10"/>
-    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId11"/>
-    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId12"/>
-    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId13"/>
+    <sheet name="&lt;zall&gt;CABEXPORT" sheetId="14" r:id="rId3"/>
+    <sheet name="BD" sheetId="4" r:id="rId4"/>
+    <sheet name="BDКаб" sheetId="13" r:id="rId5"/>
+    <sheet name="BDKc" sheetId="12" r:id="rId6"/>
+    <sheet name="&lt;zmain&gt;SET" sheetId="8" r:id="rId7"/>
+    <sheet name="&lt;zmain&gt;DEVEXPORT" sheetId="9" r:id="rId8"/>
+    <sheet name="&lt;zmain&gt;" sheetId="10" r:id="rId9"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId10"/>
+    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId11"/>
+    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId12"/>
+    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId13"/>
+    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,6 +50,238 @@
     <author>SNARK</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1CD4CEE3-1DEA-4947-BDF2-1AD018CA23CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Передаваемые данные, имя данного щита</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{694B897E-D29C-45E9-AD20-D57B4567E616}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Расчетная мощность данного щита, кВт</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C77D1FBC-E65F-4D22-B408-E0ABBD272EA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент мощности, cosf</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E695F98B-2B79-4F90-B8AF-9E2FABF6486F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Напряжение питания данного щита</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{60FF3371-0D53-4ECA-87FF-5CF7DF04C976}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Количества фаз питания щита</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM21" authorId="0" shapeId="0" xr:uid="{DBAEA875-97D9-49CC-91CB-8D02BC0FE8C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Группа в ГУ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN21" authorId="0" shapeId="0" xr:uid="{D1B6547A-9DE0-4EFF-936F-A5423FDB3551}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Если ошибка значит это не ГУ.
+Если ошибки нет, значит существует ГУ с таким именем и данные будут браться от туда</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO21" authorId="0" shapeId="0" xr:uid="{5ECA7E43-3504-41DB-8B08-19C9BF784F2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Я узел управления
+1 - узел управления
+- - не узел управления
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP21" authorId="0" shapeId="0" xr:uid="{89C0055E-945E-4AD1-9E8F-2C4435114A8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Если "Имя" - значит узел управления
+если 0 - значет просто устройство</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ21" authorId="0" shapeId="0" xr:uid="{98607095-1A33-4740-BD64-BD4496AC62B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Группа в узле управления</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E22" authorId="0" shapeId="0" xr:uid="{0BC984E3-2973-41E6-BE59-4921EFAF97F9}">
       <text>
         <r>
@@ -149,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00FCC0AD-7E46-4762-92CD-0E4CBAD4543D}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{4C2FE76F-C1DA-480E-8EC3-8DD17627A7EC}">
       <text>
         <r>
           <rPr>
@@ -164,7 +397,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{B4B7960E-C062-49B4-BFAC-269C2B0A6D8D}">
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{00FCC0AD-7E46-4762-92CD-0E4CBAD4543D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Имя или позиция устройства</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R23" authorId="0" shapeId="0" xr:uid="{B4B7960E-C062-49B4-BFAC-269C2B0A6D8D}">
       <text>
         <r>
           <rPr>
@@ -179,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{9D7D937C-D78D-4FAB-BB0D-ECFDC5A2D7B9}">
+    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{9D7D937C-D78D-4FAB-BB0D-ECFDC5A2D7B9}">
       <text>
         <r>
           <rPr>
@@ -194,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="0" shapeId="0" xr:uid="{290CFE81-963E-4C0E-9F64-A19D228B64F4}">
+    <comment ref="W23" authorId="0" shapeId="0" xr:uid="{290CFE81-963E-4C0E-9F64-A19D228B64F4}">
       <text>
         <r>
           <rPr>
@@ -209,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U23" authorId="0" shapeId="0" xr:uid="{BF15D171-8265-4117-B054-9C2DAA60676F}">
+    <comment ref="X23" authorId="0" shapeId="0" xr:uid="{BF15D171-8265-4117-B054-9C2DAA60676F}">
       <text>
         <r>
           <rPr>
@@ -225,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{6D8DE6B7-356B-45FA-9B2C-979078721D74}">
+    <comment ref="Y23" authorId="0" shapeId="0" xr:uid="{6D8DE6B7-356B-45FA-9B2C-979078721D74}">
       <text>
         <r>
           <rPr>
@@ -242,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W23" authorId="1" shapeId="0" xr:uid="{4AA5950D-F625-4EFB-A509-8593DE2D0E3F}">
+    <comment ref="Z23" authorId="1" shapeId="0" xr:uid="{4AA5950D-F625-4EFB-A509-8593DE2D0E3F}">
       <text>
         <r>
           <rPr>
@@ -258,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X23" authorId="0" shapeId="0" xr:uid="{325FAEAA-6E43-4BF0-BAC4-08CCAB289780}">
+    <comment ref="AA23" authorId="0" shapeId="0" xr:uid="{325FAEAA-6E43-4BF0-BAC4-08CCAB289780}">
       <text>
         <r>
           <rPr>
@@ -273,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE23" authorId="0" shapeId="0" xr:uid="{1BE7EC3D-2B88-4327-9CC0-673231908086}">
+    <comment ref="AH23" authorId="0" shapeId="0" xr:uid="{1BE7EC3D-2B88-4327-9CC0-673231908086}">
       <text>
         <r>
           <rPr>
@@ -281,13 +529,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Коэффициент запаса по току для подбора электротехнического оборудования</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ23" authorId="0" shapeId="0" xr:uid="{8E56D884-8B3F-4299-8DEB-CE4AF062EBC8}">
+    <comment ref="AM23" authorId="0" shapeId="0" xr:uid="{8E56D884-8B3F-4299-8DEB-CE4AF062EBC8}">
       <text>
         <r>
           <rPr>
@@ -304,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK23" authorId="0" shapeId="0" xr:uid="{B284B848-7E79-41AE-B078-E30927A7E50E}">
+    <comment ref="AN23" authorId="0" shapeId="0" xr:uid="{B284B848-7E79-41AE-B078-E30927A7E50E}">
       <text>
         <r>
           <rPr>
@@ -321,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL23" authorId="0" shapeId="0" xr:uid="{4478D9B3-1BE7-44B5-A15D-95F4DF64A9E6}">
+    <comment ref="AO23" authorId="0" shapeId="0" xr:uid="{4478D9B3-1BE7-44B5-A15D-95F4DF64A9E6}">
       <text>
         <r>
           <rPr>
@@ -338,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN23" authorId="0" shapeId="0" xr:uid="{96EEF00E-6724-4942-B325-ED65329D86B5}">
+    <comment ref="AQ23" authorId="0" shapeId="0" xr:uid="{96EEF00E-6724-4942-B325-ED65329D86B5}">
       <text>
         <r>
           <rPr>
@@ -353,12 +602,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AX23" authorId="0" shapeId="0" xr:uid="{8EDE95D7-1143-4F4B-A25E-5598F79D1B5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Когда группируются токи</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="363">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -518,9 +781,6 @@
     <t>Нагрузка на группу</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet="&lt;zlight&gt;DEVEXPORT" targetcodename="zimportdev" keynumcol="16"&gt;</t>
-  </si>
-  <si>
     <t>&lt;zlight&gt;CABEXPORT</t>
   </si>
   <si>
@@ -618,12 +878,6 @@
   </si>
   <si>
     <t>T26</t>
-  </si>
-  <si>
-    <t>Имя щита</t>
-  </si>
-  <si>
-    <t>Общая мощность</t>
   </si>
   <si>
     <t>T27</t>
@@ -786,9 +1040,6 @@
     <t>Полное имя фидера</t>
   </si>
   <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>Мате- риал</t>
   </si>
   <si>
@@ -798,9 +1049,6 @@
     <t>Марка кабеля</t>
   </si>
   <si>
-    <t>ВВГнг(А)-LS</t>
-  </si>
-  <si>
     <t>Полное имя кабеля</t>
   </si>
   <si>
@@ -813,9 +1061,6 @@
     <t>Место</t>
   </si>
   <si>
-    <t>В</t>
-  </si>
-  <si>
     <t>Допустимые токовые нагрузки и удельные сопротивления жил для кабелей с изоляцией из ПВХ и полиэтилена</t>
   </si>
   <si>
@@ -1095,9 +1340,6 @@
     <t>АВДТ32EM</t>
   </si>
   <si>
-    <t>Сумм групп ток,А</t>
-  </si>
-  <si>
     <t>ВНО</t>
   </si>
   <si>
@@ -1306,6 +1548,177 @@
   </si>
   <si>
     <t>EL_VL_SCHEMA1_2</t>
+  </si>
+  <si>
+    <t>Позиция по ТХ</t>
+  </si>
+  <si>
+    <t>Имя узла управления</t>
+  </si>
+  <si>
+    <t>Группа в узле управления</t>
+  </si>
+  <si>
+    <t>SLCABAGEN1_ControlUnitName</t>
+  </si>
+  <si>
+    <t>SLCABAGEN1_NGControlUnit</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet="&lt;zlight&gt;DEVEXPORT" targetcodename="zimportdev" keynumcol="19"&gt;</t>
+  </si>
+  <si>
+    <t>ВАЖНО! Определение я узел управления</t>
+  </si>
+  <si>
+    <t>Данные распределительного устройства</t>
+  </si>
+  <si>
+    <t>Аппарат на вводе распределительного</t>
+  </si>
+  <si>
+    <t>Данные об итоговых значения нагрузок распред.</t>
+  </si>
+  <si>
+    <t>Распред. устройство</t>
+  </si>
+  <si>
+    <t>Тип аппарата</t>
+  </si>
+  <si>
+    <t>ВМ63-4С</t>
+  </si>
+  <si>
+    <t>Установленная полная мощность, кВА</t>
+  </si>
+  <si>
+    <t>Марка оболочки щита</t>
+  </si>
+  <si>
+    <t>ЩРН-12</t>
+  </si>
+  <si>
+    <t>Номинальный ток, А</t>
+  </si>
+  <si>
+    <t>Расчетная полная мощность, кВт</t>
+  </si>
+  <si>
+    <t>Артикул/код щита</t>
+  </si>
+  <si>
+    <t>Уставка расцепителя,А</t>
+  </si>
+  <si>
+    <t>Ток от установленной мощности, А</t>
+  </si>
+  <si>
+    <t>Способ монтажа</t>
+  </si>
+  <si>
+    <t>Навесное</t>
+  </si>
+  <si>
+    <t>Предел коммутац. стойкость,кА</t>
+  </si>
+  <si>
+    <t>Расчетный ток от эквивалент. группы      3-х фаз с суммарной мощностью однофазных, А</t>
+  </si>
+  <si>
+    <t>Степень защиты оболочки</t>
+  </si>
+  <si>
+    <t>IP54</t>
+  </si>
+  <si>
+    <t>Тип защитной характеристики</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Место установки щита</t>
+  </si>
+  <si>
+    <t>Кол. откл полюсов</t>
+  </si>
+  <si>
+    <t>Количество фаз питания</t>
+  </si>
+  <si>
+    <t>Уставка дифференц. тока, мА</t>
+  </si>
+  <si>
+    <t>100мА</t>
+  </si>
+  <si>
+    <t>Коэффициент спроса</t>
+  </si>
+  <si>
+    <t>Тип питающей сити</t>
+  </si>
+  <si>
+    <t>TN-C-S (~220/380B, 3L,N,PE)</t>
+  </si>
+  <si>
+    <t>QF1</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы A, А</t>
+  </si>
+  <si>
+    <t>Электропитание осуществ. от</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы B, А</t>
+  </si>
+  <si>
+    <t>Кол-во модулей по 18мм</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы С, А</t>
+  </si>
+  <si>
+    <t>Коэффициент мощности, cosf</t>
+  </si>
+  <si>
+    <t>АВС</t>
+  </si>
+  <si>
+    <t>Напряжение питания щита, В</t>
+  </si>
+  <si>
+    <t>&lt;zallcabimport&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/zallcabimport&gt;</t>
+  </si>
+  <si>
+    <t>ВАЖНО! Истинная группа распределительного щита подклчения</t>
+  </si>
+  <si>
+    <t>ВАЖНО! Подключено ли устройство к УУ</t>
+  </si>
+  <si>
+    <t>Момент изменения глобальной группы</t>
+  </si>
+  <si>
+    <t>Ур подключения</t>
+  </si>
+  <si>
+    <t>0 ур</t>
+  </si>
+  <si>
+    <t>1 ур</t>
+  </si>
+  <si>
+    <t>2 ур</t>
+  </si>
+  <si>
+    <t>Сумм групп ток ,А</t>
+  </si>
+  <si>
+    <t>Имя прокладываемого кабеля</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1729,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1839,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1433,7 +1863,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1494,8 +1924,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2036,15 +2478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2138,13 +2571,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,9 +2673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,7 +2819,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2337,102 +2835,186 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2466,55 +3048,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2522,7 +3106,41 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2583,6 +3201,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3129,15 +3757,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -3145,42 +3773,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3189,6 +3817,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDFFC8-3239-46C1-B119-51B6AFCFF800}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716B96F-A01E-4EBE-9361-360895827D35}">
   <dimension ref="B4:AL8"/>
   <sheetViews>
@@ -3204,13 +3866,13 @@
   <sheetData>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,10 +3882,10 @@
     </row>
     <row r="6" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3232,15 +3894,15 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -3249,18 +3911,18 @@
         <v>0</v>
       </c>
       <c r="AK7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <f>E7+25</f>
@@ -3270,99 +3932,99 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="e">
         <f>'&lt;zlight&gt;'!#REF!&amp;'&lt;zlight&gt;'!D24</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="e">
         <f>'&lt;zlight&gt;'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="e">
         <f>'&lt;zlight&gt;'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f>'&lt;zlight&gt;'!AJ24</f>
+        <v>GC_HeadDevice.GC_HDGroup</v>
+      </c>
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="1">
+        <f>'&lt;zlight&gt;'!AL24</f>
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="1" t="str">
-        <f>'&lt;zlight&gt;'!AG24</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
-      </c>
-      <c r="U8" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="1">
-        <f>'&lt;zlight&gt;'!AI24</f>
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" s="1" t="str">
+        <f>'&lt;zlight&gt;'!O24&amp;" ("&amp;'&lt;zlight&gt;'!W24&amp;" шт.)"</f>
+        <v>Position (1 шт.)</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="1" t="str">
-        <f>'&lt;zlight&gt;'!L24&amp;" ("&amp;'&lt;zlight&gt;'!T24&amp;" шт.)"</f>
-        <v>Position (1 шт.)</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="e">
+        <f ca="1">'&lt;zlight&gt;'!R24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="1" t="e">
-        <f>'&lt;zlight&gt;'!O24</f>
+      <c r="AB8" s="1" t="e">
+        <f ca="1">'&lt;zlight&gt;'!T24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="1" t="e">
-        <f>'&lt;zlight&gt;'!Q24</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="AC8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" s="1" t="str">
+        <f>'&lt;zlight&gt;'!Z24</f>
+        <v>realnamedev</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="1" t="str">
-        <f>'&lt;zlight&gt;'!W24</f>
-        <v>realnamedev</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="AK8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="s">
         <v>12</v>
@@ -3373,12 +4035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C13:DU24"/>
+  <dimension ref="C1:EC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,903 +4050,1333 @@
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="10.28515625" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" customWidth="1"/>
-    <col min="34" max="34" width="21.5703125" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" customWidth="1"/>
-    <col min="36" max="38" width="5.7109375" customWidth="1"/>
-    <col min="39" max="40" width="7.7109375" customWidth="1"/>
-    <col min="41" max="41" width="19" customWidth="1"/>
-    <col min="42" max="47" width="8.28515625" customWidth="1"/>
-    <col min="48" max="49" width="7.7109375" customWidth="1"/>
-    <col min="50" max="53" width="8.85546875" customWidth="1"/>
-    <col min="54" max="62" width="10.42578125" customWidth="1"/>
-    <col min="63" max="63" width="28" customWidth="1"/>
-    <col min="64" max="124" width="10.42578125" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10.28515625" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="21.5703125" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="41" width="5.7109375" customWidth="1"/>
+    <col min="42" max="43" width="7.7109375" customWidth="1"/>
+    <col min="44" max="44" width="19" customWidth="1"/>
+    <col min="45" max="50" width="8.28515625" customWidth="1"/>
+    <col min="51" max="52" width="7.7109375" customWidth="1"/>
+    <col min="53" max="56" width="8.85546875" customWidth="1"/>
+    <col min="57" max="64" width="10.42578125" customWidth="1"/>
+    <col min="65" max="69" width="3.7109375" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" customWidth="1"/>
+    <col min="71" max="71" width="28" customWidth="1"/>
+    <col min="72" max="132" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="12:123" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X13" s="11" t="s">
+    <row r="1" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="str">
+        <f>'&lt;zlight&gt;'!F18</f>
+        <v>NMO_Name</v>
+      </c>
+      <c r="E1" s="1" t="e">
+        <f ca="1">T6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1" s="1">
+        <f>T8</f>
+        <v>0.92</v>
+      </c>
+      <c r="G1" s="1">
+        <f>H11</f>
+        <v>380</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>H12</f>
+        <v>АВС</v>
+      </c>
+    </row>
+    <row r="4" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D4" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="O4" s="84"/>
+      <c r="P4" s="131" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+    </row>
+    <row r="5" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D5" s="132" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="78" t="str">
+        <f>'&lt;zlight&gt;'!F18</f>
+        <v>NMO_Name</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="O5" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="P5" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133" t="e">
+        <f ca="1">SUM($AC$24:$AC$12000)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="133"/>
+    </row>
+    <row r="6" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D6" s="132" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="O6" s="82">
+        <v>63</v>
+      </c>
+      <c r="P6" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133" t="e">
+        <f ca="1">T5*T11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="133"/>
+    </row>
+    <row r="7" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D7" s="132" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="79">
+        <v>45399</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="O7" s="82">
+        <v>32</v>
+      </c>
+      <c r="P7" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133" t="e">
+        <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="133"/>
+    </row>
+    <row r="8" spans="4:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="132" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="O8" s="82">
+        <v>6</v>
+      </c>
+      <c r="P8" s="135" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="134">
+        <v>0.92</v>
+      </c>
+      <c r="U8" s="134"/>
+    </row>
+    <row r="9" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D9" s="132" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="O9" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="P9" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+    </row>
+    <row r="10" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D10" s="132" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="I10" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="O10" s="82">
+        <v>4</v>
+      </c>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+    </row>
+    <row r="11" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D11" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="79">
+        <v>380</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="O11" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="140" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="140">
+        <v>0.65</v>
+      </c>
+      <c r="U11" s="142"/>
+    </row>
+    <row r="12" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D12" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139">
+        <v>44.5</v>
+      </c>
+      <c r="U12" s="139"/>
+    </row>
+    <row r="13" spans="4:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="I13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="139" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139">
+        <v>44.5</v>
+      </c>
+      <c r="U13" s="139"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+    </row>
+    <row r="14" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D14" s="132" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="80" t="str">
+        <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
+        <v>GC_HeadDevice.GC_HDGroup</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139">
+        <v>44.5</v>
+      </c>
+      <c r="U14" s="139"/>
+      <c r="DH14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DI14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-    </row>
-    <row r="14" spans="12:123" x14ac:dyDescent="0.25">
-      <c r="L14" s="10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X14">
-        <f>SUM(X24:X12000)</f>
-        <v>1</v>
-      </c>
-      <c r="CZ14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DB14" s="1"/>
-      <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
-      <c r="DE14" s="1"/>
-      <c r="DF14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG14" s="1"/>
-      <c r="DH14" s="1"/>
-      <c r="DI14" s="1"/>
       <c r="DJ14" s="1"/>
       <c r="DK14" s="1"/>
       <c r="DL14" s="1"/>
       <c r="DM14" s="1"/>
-      <c r="DN14" s="1"/>
+      <c r="DN14" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="DO14" s="1"/>
       <c r="DP14" s="1"/>
       <c r="DQ14" s="1"/>
       <c r="DR14" s="1"/>
       <c r="DS14" s="1"/>
-    </row>
-    <row r="16" spans="12:123" x14ac:dyDescent="0.25">
-      <c r="DR16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:125" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BK21" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL21" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM21" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="BN21" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="BO21" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="CY21" t="s">
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+    </row>
+    <row r="15" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="D15" s="132" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="4:131" x14ac:dyDescent="0.25">
+      <c r="DZ16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM18" s="1"/>
+      <c r="BO18" s="1"/>
+    </row>
+    <row r="21" spans="3:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BS21" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT21" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU21" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV21" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW21" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="DG21" t="s">
+        <v>277</v>
+      </c>
+      <c r="DI21" t="s">
+        <v>278</v>
+      </c>
+      <c r="DK21" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM21" t="s">
+        <v>280</v>
+      </c>
+      <c r="DO21" t="s">
+        <v>281</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>282</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>283</v>
+      </c>
+      <c r="DU21" t="s">
         <v>284</v>
       </c>
-      <c r="DA21" t="s">
-        <v>285</v>
-      </c>
-      <c r="DC21" t="s">
+      <c r="DW21" t="s">
+        <v>279</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>280</v>
+      </c>
+      <c r="EA21" t="s">
         <v>286</v>
       </c>
-      <c r="DE21" t="s">
-        <v>287</v>
-      </c>
-      <c r="DG21" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI21" t="s">
-        <v>289</v>
-      </c>
-      <c r="DK21" t="s">
-        <v>290</v>
-      </c>
-      <c r="DM21" t="s">
-        <v>291</v>
-      </c>
-      <c r="DO21" t="s">
-        <v>286</v>
-      </c>
-      <c r="DQ21" t="s">
-        <v>287</v>
-      </c>
-      <c r="DS21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="3:125" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="J22" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="111"/>
-      <c r="L22" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="95" t="s">
+    </row>
+    <row r="22" spans="3:133" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129" t="s">
+        <v>362</v>
+      </c>
+      <c r="O22" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="98" t="s">
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK22" s="123"/>
+      <c r="AL22" s="123"/>
+      <c r="AM22" s="123"/>
+      <c r="AN22" s="123"/>
+      <c r="AO22" s="123"/>
+      <c r="AP22" s="123"/>
+      <c r="AQ22" s="123"/>
+      <c r="AR22" s="123"/>
+      <c r="AS22" s="123"/>
+      <c r="AT22" s="123"/>
+      <c r="AU22" s="123"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="124"/>
+      <c r="AX22" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY22" s="120"/>
+      <c r="AZ22" s="120"/>
+      <c r="BA22" s="120"/>
+      <c r="BB22" s="120"/>
+      <c r="BC22" s="120"/>
+      <c r="BD22" s="120"/>
+      <c r="BE22" s="121"/>
+      <c r="BF22" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG22" s="126"/>
+      <c r="BH22" s="126"/>
+      <c r="BI22" s="126"/>
+      <c r="BJ22" s="126"/>
+      <c r="BK22" s="126"/>
+      <c r="BL22" s="127"/>
+      <c r="BM22" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN22" s="106"/>
+      <c r="BO22" s="106"/>
+      <c r="BP22" s="106"/>
+      <c r="BQ22" s="107"/>
+      <c r="BR22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:133" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="112"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M23" s="130"/>
+      <c r="O23" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z23" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA23" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB23" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC23" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD23" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE23" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH23" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI23" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ23" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK23" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL23" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM23" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN23" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO23" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP23" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="96"/>
-      <c r="BA22" s="96"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="102"/>
-      <c r="BI22" s="103"/>
-      <c r="BJ22" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="1">
+      <c r="AQ23" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR23" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS23" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT23" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU23" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV23" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW23" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX23" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY23" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ23" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA23" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB23" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC23" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD23" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE23" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF23" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG23" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH23" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI23" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="BJ23" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK23" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL23" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM23" s="108"/>
+      <c r="BN23" s="109"/>
+      <c r="BO23" s="109"/>
+      <c r="BP23" s="109"/>
+      <c r="BQ23" s="110"/>
+      <c r="BR23" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>60</v>
+      </c>
+      <c r="BU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="1">
         <v>1</v>
       </c>
-      <c r="BO22" s="1">
+      <c r="BW23" s="1">
         <v>1</v>
       </c>
-      <c r="DT22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="3:125" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="107"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="V23" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="W23" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="X23" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y23" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z23" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA23" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB23" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC23" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE23" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF23" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG23" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH23" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI23" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ23" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK23" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL23" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM23" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN23" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO23" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP23" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ23" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="AR23" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS23" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT23" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU23" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV23" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW23" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX23" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY23" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ23" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA23" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB23" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC23" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="BD23" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE23" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF23" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG23" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH23" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI23" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK23" s="1" t="s">
+      <c r="EB23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>311</v>
       </c>
-      <c r="BL23" s="1">
-        <v>60</v>
-      </c>
-      <c r="BM23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO23" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="3:125" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="65" t="str">
-        <f>IF('&lt;zlight&gt;DEVEXPORT'!N11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
+      <c r="D24" s="64" t="str">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!P11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
         <v>GC_HDGroup</v>
       </c>
-      <c r="E24" s="65" t="str">
+      <c r="E24" s="64" t="str">
         <f>IF(D24="","","УЗДП")</f>
         <v>УЗДП</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <f>IF(D24="","",1)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="65" t="str">
+      <c r="G24" s="64" t="str">
         <f>IF(D24="","","АВ")</f>
         <v>АВ</v>
       </c>
-      <c r="H24" s="65" t="e">
-        <f ca="1">IF(E24="","",IF(F24="",AZ24&amp;", "&amp;BA24&amp;", "&amp;BB24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),AZ24&amp;", "&amp;BA24&amp;", "&amp;BB24,"")))</f>
+      <c r="H24" s="64" t="e">
+        <f ca="1">IF(E24="","",IF(F24="",BC24&amp;", "&amp;BD24&amp;", "&amp;BE24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),BC24&amp;", "&amp;BD24&amp;", "&amp;BE24,"")))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="65" t="e">
-        <f ca="1">IF(G24="","",BG24&amp;", "&amp;BH24&amp;", "&amp;BI24)</f>
+      <c r="I24" s="64" t="e">
+        <f ca="1">IF(G24="","",BJ24&amp;", "&amp;BK24&amp;", "&amp;BL24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="12" t="str">
-        <f>'&lt;zlight&gt;DEVEXPORT'!F11</f>
-        <v>GC_HDGroup</v>
-      </c>
-      <c r="K24" s="12" t="e">
-        <f ca="1">INDIRECT("'"&amp;L24&amp;"'!"&amp;"X14")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="66" t="str">
+      <c r="J24" s="1">
+        <f>IF(BP24=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <f>IF(BP24=0,0,IF(L24=0,IF(MATCH(BP24,$O$24:O24,0)=0,0,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f>IF(BP24=0,0,IF(INDEX($BP$24:BP24,MATCH(BP24,$O$24:O24,0))=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="88" t="e">
+        <f ca="1">IF(AJ24="","",AK24&amp;" L="&amp;AL24&amp;"м")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="65" t="str">
         <f>'&lt;zlight&gt;DEVEXPORT'!G11</f>
         <v>Position</v>
       </c>
-      <c r="M24" s="67" t="e">
-        <f>VLOOKUP('&lt;zlight&gt;DEVEXPORT'!K11,BD!$A$4:$C$5,2,FALSE)</f>
+      <c r="P24" s="86" t="e">
+        <f ca="1">IF(IFERROR(BN24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!M11,BD!$A$4:$C$5,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="67" t="e">
-        <f>VLOOKUP('&lt;zlight&gt;DEVEXPORT'!L11,BD!$A$10:$B$13,2,FALSE)</f>
+      <c r="Q24" s="86" t="e">
+        <f ca="1">IF(IFERROR(BN24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!N11,BD!$A$10:$B$13,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="67" t="e">
-        <f>T24*S24</f>
+      <c r="R24" s="86" t="e">
+        <f ca="1">IF(IFERROR(BN24,1)=1,W24*V24,INDIRECT("'"&amp;O24&amp;"'!"&amp;"E1"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="67" t="str">
-        <f>'&lt;zlight&gt;DEVEXPORT'!I11</f>
+      <c r="S24" s="86" t="str">
+        <f ca="1">IF(IFERROR(BN24,1)=1,'&lt;zlight&gt;DEVEXPORT'!K11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
         <v>CosPHI</v>
       </c>
-      <c r="Q24" s="66" t="e">
-        <f>ROUNDUP((O24*1000)/(VLOOKUP(M24,BD!$B$4:$C$5,2,FALSE)*P24),2)</f>
+      <c r="T24" s="87" t="e">
+        <f ca="1">ROUNDUP((R24*1000)/(VLOOKUP(P24,BD!$B$4:$C$5,2,FALSE)*S24),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R24" s="66" t="e">
-        <f>ROUNDUP(O24*ROUNDUP(TAN(ACOS(P24)),2),2)</f>
+      <c r="U24" s="65" t="e">
+        <f ca="1">ROUNDUP(R24*ROUNDUP(TAN(ACOS(S24)),2),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S24" s="66" t="str">
-        <f>'&lt;zlight&gt;DEVEXPORT'!H11</f>
+      <c r="V24" s="65" t="str">
+        <f>'&lt;zlight&gt;DEVEXPORT'!J11</f>
         <v>Power</v>
       </c>
-      <c r="T24" s="66">
-        <f>'&lt;zlight&gt;DEVEXPORT'!O11</f>
+      <c r="W24" s="65">
+        <f>'&lt;zlight&gt;DEVEXPORT'!Q11</f>
         <v>1</v>
       </c>
-      <c r="U24" s="66">
+      <c r="X24" s="65">
         <v>1</v>
       </c>
-      <c r="V24" s="67"/>
-      <c r="W24" s="66" t="str">
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="65" t="str">
         <f>'&lt;zlight&gt;DEVEXPORT'!C11</f>
         <v>realnamedev</v>
       </c>
-      <c r="X24" s="68">
+      <c r="AA24" s="67">
         <v>1</v>
       </c>
-      <c r="Y24" s="68" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP(COS(ATAN(ROUNDUP(AC24/Z24,2))),2))</f>
+      <c r="AB24" s="67" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP(COS(ATAN(ROUNDUP(AF24/AC24,2))),2))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z24" s="68" t="e">
-        <f ca="1">IF(D24="","",IFERROR(K24,X24*SUMIFS($O$24:$O$12000,$J$24:$J$12000,J24)))</f>
+      <c r="AC24" s="67" t="e">
+        <f ca="1">IF(D24="","",AA24*SUMIFS($R$24:$R$12000,$BM$24:$BM$12000,BM24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA24" s="68" t="e">
-        <f ca="1">ROUNDUP(IF(M24=380,SQRT(3),2)*AB24*AI24*(HLOOKUP(AJ24&amp;AK24&amp;AL24&amp;"R",BDКаб!$B$3:$AH$12,MATCH(AN24,BDКаб!$B$5:$B$12,1)+2,FALSE)*Y24 + HLOOKUP(AJ24&amp;AK24&amp;AL24&amp;"X",BDКаб!$B$3:$AH$12,MATCH(AN24,BDКаб!$B$5:$B$12,1)+2,FALSE)*SQRT(1-Y24*Y24))/(1000*IF(M24=380,380,220)),2)</f>
+      <c r="AD24" s="67" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP(IF(P24=380,SQRT(3),2)*AE24*AL24*(HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"R",BDКаб!$B$3:$AH$12,MATCH(AQ24,BDКаб!$B$5:$B$12,1)+2,FALSE)*AB24 + HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"X",BDКаб!$B$3:$AH$12,MATCH(AQ24,BDКаб!$B$5:$B$12,1)+2,FALSE)*SQRT(1-AB24*AB24))/(1000*IF(P24=380,380,220)),2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AB24" s="68" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP((Z24*1000)/(VLOOKUP(M24,BD!$B$4:$C$5,2,FALSE)*Y24),2))</f>
+      <c r="AE24" s="67" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP((AC24*1000)/(VLOOKUP(P24,BD!$B$4:$C$5,2,FALSE)*AB24),2))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC24" s="68" t="e">
-        <f>IF(D24="","",X24*SUMIFS($R$24:$R$12000,$J$24:$J$12000,J24))</f>
+      <c r="AF24" s="67" t="e">
+        <f ca="1">IF(D24="","",AA24*SUMIFS($U$24:$U$12000,$BM$24:$BM$12000,BM24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD24" s="68" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP(SQRT(Z24*Z24+AC24*AC24),2))</f>
+      <c r="AG24" s="67" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP(SQRT(AC24*AC24+AF24*AF24),2))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE24" s="69">
+      <c r="AH24" s="68">
+        <f>IF(D24="","",1.3)</f>
         <v>1.3</v>
       </c>
-      <c r="AF24" s="69">
-        <f>IF(D24="","",3)</f>
+      <c r="AI24" s="68">
+        <f>IF(AJ24="","",3)</f>
         <v>3</v>
       </c>
-      <c r="AG24" s="68" t="str">
-        <f>IF(D24="","",'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
+      <c r="AJ24" s="67" t="str">
+        <f>IF(D24="",IF(BP24=0,"",IF(BP24=O24,"",BP24&amp;"."&amp;BQ24)),'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
-      <c r="AH24" s="68" t="e">
-        <f ca="1">IF(D24="","",AO24&amp;"-"&amp;AM24&amp;"х"&amp;AS24&amp;"мм²")</f>
+      <c r="AK24" s="67" t="e">
+        <f ca="1">IF(AJ24="","",AR24&amp;"-"&amp;AP24&amp;"х"&amp;AQ24&amp;"мм²")</f>
         <v>#N/A</v>
       </c>
-      <c r="AI24" s="68">
-        <f>IF(D24="","",SUMIFS('&lt;zlight&gt;CABEXPORT'!$H$4:$H$12000,'&lt;zlight&gt;CABEXPORT'!$D$4:$D$12000,'&lt;zlight&gt;'!AG24))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK24" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL24" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM24" s="67" t="e">
-        <f>IF(D24="","",IF(M24=380,5,3))</f>
+      <c r="AL24" s="67">
+        <f>IF(AJ24="","",SUMIFS('&lt;zall&gt;CABEXPORT'!$H$4:$H$120000,'&lt;zall&gt;CABEXPORT'!$D$4:$D$120000,AJ24))</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="68" t="str">
+        <f>IF(AJ24="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AN24" s="68" t="str">
+        <f>IF(AJ24="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AO24" s="68" t="str">
+        <f>IF(AJ24="","","В")</f>
+        <v>В</v>
+      </c>
+      <c r="AP24" s="66" t="e">
+        <f ca="1">IF(AJ24="","",IF(P24=380,5,3))</f>
         <v>#N/A</v>
       </c>
-      <c r="AN24" s="67" t="e">
-        <f ca="1">IF(AQ24&gt;IF(AS24&gt;AT24,AS24,AT24),AQ24,IF(AS24&gt;AT24,AS24,AT24))</f>
+      <c r="AQ24" s="66" t="e">
+        <f ca="1">IF(AJ24="","",IF(AT24&gt;IF(AV24&gt;AW24,AV24,AW24),AT24,IF(AV24&gt;AW24,AV24,AW24)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AO24" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP24" s="67" t="e">
-        <f ca="1">(AF24*380*1000)/(SQRT(3)*AB24*AI24*100)</f>
+      <c r="AR24" s="66" t="str">
+        <f>IF(AJ24="","","ВВГнг(А)-LS")</f>
+        <v>ВВГнг(А)-LS</v>
+      </c>
+      <c r="AS24" s="66" t="e">
+        <f ca="1">IF(AJ24="","",(AI24*380*1000)/(SQRT(3)*IF(AJ24="","",IF(D24="",T24,AE24))*AL24*100))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="67" t="e">
-        <f ca="1">INDEX(BDКаб!$B$5:$B$12,MATCH(AP24,INDIRECT("BDКаб!"&amp;HLOOKUP(AJ24&amp;AK24&amp;AL24&amp;"Z",BDКаб!$B$3:$AH$4,2,FALSE)),-1)+1)</f>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="66" t="e">
+        <f ca="1">IF(AJ24="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AS24,INDIRECT("BDКаб!"&amp;HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"Z",BDКаб!$B$3:$AH$4,2,FALSE)),-1)+1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AT24" s="67" t="e">
-        <f ca="1">INDEX(BDКаб!$B$5:$B$12,MATCH(AB24,INDIRECT("BDКаб!"&amp;HLOOKUP(AJ24&amp;AK24&amp;AL24&amp;"I",BDКаб!$B$3:$AH$4,2,FALSE)),1)+1)</f>
+      <c r="AW24" s="66" t="e">
+        <f ca="1">IF(AJ24="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AJ24="","",IF(D24="",T24,AE24)),INDIRECT("BDКаб!"&amp;HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"I",BDКаб!$B$3:$AH$4,2,FALSE)),1)+1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU24" s="67" t="e">
-        <f ca="1">IF(E24="","",SUMIFS($AB$24:$AB$12000,$F$24:$F$12000,F24))</f>
+      <c r="AX24" s="66" t="e">
+        <f ca="1">IF(E24="","",SUMIFS($AE$24:$AE$12000,$F$24:$F$12000,F24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AV24" s="68" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),MATCH(AE24*IF(F24="",AB24,AU24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),-1)))</f>
+      <c r="AY24" s="67" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AW24" s="69" t="str">
+      <c r="AZ24" s="68" t="str">
         <f>IF(E24="","","C")</f>
         <v>C</v>
       </c>
-      <c r="AX24" s="73" t="str">
+      <c r="BA24" s="72" t="str">
         <f>IF(E24="","","3")</f>
         <v>3</v>
       </c>
-      <c r="AY24" s="73" t="str">
+      <c r="BB24" s="72" t="str">
         <f>IF(E24="","","30")</f>
         <v>30</v>
       </c>
-      <c r="AZ24" s="73" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"О",BD!$K$4:$BP$4,0))),MATCH(AV24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0))&amp;D24)</f>
+      <c r="BC24" s="72" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"О",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA24" s="72" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"М",BD!$K$4:$BP$4,0))),MATCH(AV24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
+      <c r="BD24" s="71" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"М",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB24" t="e">
-        <f ca="1">IF(E24="","",AX24&amp;"P,"&amp;AV24&amp;"А,"&amp;AW24&amp;IF(AY24="","",","&amp;AY24&amp;"мА"))</f>
+      <c r="BE24" t="e">
+        <f ca="1">IF(E24="","",BA24&amp;"P,"&amp;AY24&amp;"А,"&amp;AZ24&amp;IF(BB24="","",","&amp;BB24&amp;"мА"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC24" s="68" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),MATCH(AE24*AB24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),-1)))</f>
+      <c r="BF24" s="67" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD24" s="69" t="str">
+      <c r="BG24" s="68" t="str">
         <f>IF(G24="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BE24" s="73" t="str">
+      <c r="BH24" s="72" t="str">
         <f>IF(G24="","","3")</f>
         <v>3</v>
       </c>
-      <c r="BF24" s="73" t="str">
+      <c r="BI24" s="72" t="str">
         <f>IF(G24="","","30")</f>
         <v>30</v>
       </c>
-      <c r="BG24" s="73" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"О",BD!$K$4:$BS$4,0))),MATCH(BC24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0))&amp;D24)</f>
+      <c r="BJ24" s="72" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"О",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BH24" s="72" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"М",BD!$K$4:$BS$4,0))),MATCH(BC24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
+      <c r="BK24" s="71" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"М",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BI24" t="e">
-        <f ca="1">IF(G24="","",BE24&amp;"P,"&amp;BC24&amp;"А,"&amp;BD24&amp;IF(BF24="","",","&amp;BF24&amp;"мА"))</f>
+      <c r="BL24" t="e">
+        <f ca="1">IF(G24="","",BH24&amp;"P,"&amp;BF24&amp;"А,"&amp;BG24&amp;IF(BI24="","",","&amp;BI24&amp;"мА"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="BL24" s="1">
-        <f>COUNTIF($BK$24:BK24,"*")*25+$BL$23</f>
+      <c r="BM24" s="11" t="str">
+        <f>'&lt;zlight&gt;DEVEXPORT'!V11</f>
+        <v>GC_HDGroup</v>
+      </c>
+      <c r="BN24" s="11" t="e">
+        <f ca="1">INDIRECT("'"&amp;O24&amp;"'!"&amp;"X14")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BO24" s="11" t="str">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!T11="-",'&lt;zlight&gt;DEVEXPORT'!T11,1)</f>
+        <v>-</v>
+      </c>
+      <c r="BP24" s="11">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11="-",0,'&lt;zlight&gt;DEVEXPORT'!U11)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="11">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11="-",0,'&lt;zlight&gt;DEVEXPORT'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BT24" s="1">
+        <f>COUNTIF($BS$24:BS24,"*")*25+$BT$23</f>
         <v>85</v>
       </c>
-      <c r="BM24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="1">
+      <c r="BU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="1">
         <v>1</v>
       </c>
-      <c r="BO24" s="1">
+      <c r="BW24" s="1">
         <v>1</v>
       </c>
-      <c r="BP24" s="1" t="s">
+      <c r="BX24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY24" s="1" t="e">
+        <f ca="1">IF(H24="","",BC24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BZ24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BQ24" s="1" t="e">
-        <f ca="1">IF(H24="","",AZ24)</f>
+      <c r="CA24" s="1" t="e">
+        <f ca="1">IF(H24="","",BD24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BR24" s="1" t="s">
+      <c r="CB24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS24" s="1" t="e">
-        <f ca="1">IF(H24="","",BA24)</f>
+      <c r="CC24" s="1" t="e">
+        <f ca="1">IF(H24="","",BE24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BT24" s="1" t="s">
+      <c r="CD24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU24" s="1" t="e">
-        <f ca="1">IF(H24="","",BB24)</f>
+      <c r="CE24" s="1" t="e">
+        <f ca="1">BJ24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BV24" s="1" t="s">
+      <c r="CF24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BW24" s="1" t="e">
-        <f ca="1">BG24</f>
+      <c r="CG24" s="1" t="e">
+        <f ca="1">BK24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CH24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BY24" s="1" t="e">
-        <f ca="1">BH24</f>
+      <c r="CI24" t="e">
+        <f ca="1">BL24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BZ24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA24" t="e">
-        <f ca="1">BI24</f>
+      <c r="CJ24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>269</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ24" s="1" t="str">
+        <f>AJ24</f>
+        <v>GC_HeadDevice.GC_HDGroup</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS24" s="1" t="e">
+        <f ca="1">IF(H24="",IF(I24="","","L="&amp;AL24&amp;"м"),"L="&amp;AL24&amp;"м")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CB24" s="1" t="s">
+      <c r="CT24" t="s">
+        <v>270</v>
+      </c>
+      <c r="CU24" s="1"/>
+      <c r="CV24" t="s">
+        <v>271</v>
+      </c>
+      <c r="CW24" s="1"/>
+      <c r="CX24" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY24" s="1" t="str">
+        <f>O24</f>
+        <v>Position</v>
+      </c>
+      <c r="CZ24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DA24" s="1" t="e">
+        <f ca="1">R24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DB24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC24" s="1" t="e">
+        <f ca="1">T24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DD24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE24" s="1" t="str">
+        <f>Z24</f>
+        <v>realnamedev</v>
+      </c>
+      <c r="DF24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DG24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DH24" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CC24" t="s">
-        <v>276</v>
-      </c>
-      <c r="CD24" s="1" t="s">
+      <c r="DI24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DJ24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CE24" t="s">
-        <v>276</v>
-      </c>
-      <c r="CF24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>276</v>
-      </c>
-      <c r="CH24" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI24" s="1" t="str">
-        <f>AG24</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
-      </c>
-      <c r="CJ24" t="s">
-        <v>75</v>
-      </c>
-      <c r="CK24" s="1" t="e">
-        <f ca="1">IF(H24="",IF(I24="","","L="&amp;AI24&amp;"м"),"L="&amp;AI24&amp;"м")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>277</v>
-      </c>
-      <c r="CM24" s="1"/>
-      <c r="CN24" t="s">
-        <v>278</v>
-      </c>
-      <c r="CO24" s="1"/>
-      <c r="CP24" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ24" s="1" t="str">
-        <f>L24</f>
-        <v>Position</v>
-      </c>
-      <c r="CR24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS24" s="1" t="e">
-        <f>O24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CT24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU24" s="1" t="e">
-        <f>Q24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CV24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CW24" s="1" t="str">
-        <f>W24</f>
-        <v>realnamedev</v>
-      </c>
-      <c r="CX24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CY24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CZ24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DA24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DB24" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DC24" s="1" t="e">
+      <c r="DK24" s="1" t="e">
         <f ca="1">IF(H24="","BOOLEAN_0","BOOLEAN_1")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DD24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="DE24" s="1" t="e">
+      <c r="DL24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM24" s="1" t="e">
         <f ca="1">IF(I24="","BOOLEAN_0","BOOLEAN_1")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DF24" t="s">
-        <v>283</v>
-      </c>
-      <c r="DG24" t="e">
+      <c r="DN24" t="s">
+        <v>276</v>
+      </c>
+      <c r="DO24" t="e">
         <f ca="1">IF(H24="",IF(I24="","BOOLEAN_0","BOOLEAN_0"),"BOOLEAN_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DH24" t="s">
-        <v>83</v>
-      </c>
-      <c r="DI24" s="1" t="e">
+      <c r="DP24" t="s">
+        <v>82</v>
+      </c>
+      <c r="DQ24" s="1" t="e">
         <f ca="1">IF(H24="",IF(I24="","BOOLEAN_1","BOOLEAN_0"),"BOOLEAN_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DJ24" t="s">
+      <c r="DR24" t="s">
+        <v>83</v>
+      </c>
+      <c r="DS24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>285</v>
+      </c>
+      <c r="DU24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DV24" t="s">
         <v>86</v>
       </c>
-      <c r="DK24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DL24" t="s">
-        <v>292</v>
-      </c>
-      <c r="DM24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DN24" t="s">
-        <v>89</v>
-      </c>
-      <c r="DO24" t="e">
-        <f ca="1">IF(H24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"N",BD!$K$4:$BP$4,0))),MATCH(AV24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
+      <c r="DW24" t="e">
+        <f ca="1">IF(H24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"N",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DP24" t="s">
-        <v>302</v>
-      </c>
-      <c r="DQ24" t="e">
-        <f ca="1">IF(I24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"N",BD!$K$4:$BS$4,0))),MATCH(BC24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
+      <c r="DX24" t="s">
+        <v>295</v>
+      </c>
+      <c r="DY24" t="e">
+        <f ca="1">IF(I24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"N",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DR24" t="s">
-        <v>303</v>
-      </c>
-      <c r="DS24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="DT24" t="s">
-        <v>60</v>
-      </c>
-      <c r="DU24" t="s">
+      <c r="DZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EA24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>59</v>
+      </c>
+      <c r="EC24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="45">
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="BM22:BQ23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="L22:W22"/>
-    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="O22:Z22"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="AG22:AT22"/>
-    <mergeCell ref="BC22:BI22"/>
-    <mergeCell ref="AU22:BB22"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BF22:BL22"/>
+    <mergeCell ref="AX22:BE22"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>NOT(_xlfn.ISFORMULA(M24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>NOT(_xlfn.ISFORMULA(N24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>NOT(_xlfn.ISFORMULA(O24))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>NOT(_xlfn.ISFORMULA(V24))</formula>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>NOT(_xlfn.ISFORMULA(AM24))</formula>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN24">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(_xlfn.ISFORMULA(AN24))</formula>
+  <conditionalFormatting sqref="AV24">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4293,12 +5385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
-  <dimension ref="B5:Z11"/>
+  <dimension ref="B5:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4309,20 +5401,19 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="20" width="12" customWidth="1"/>
-    <col min="21" max="25" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="14" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -4334,18 +5425,18 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="90" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="90" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -4357,166 +5448,138 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>30</v>
+      <c r="T9" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="N10" s="1"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="P10" s="1"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" t="e">
-        <f>ROUNDUP(TAN(ACOS(I11)),2)</f>
+      <c r="L11" s="1" t="e">
+        <f>ROUNDUP(TAN(ACOS(K11)),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="M11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="N11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M11">
+      <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="P11" s="1">
         <f>IF(F10&lt;&gt;F11,IFERROR(IF(MATCH(E11,$D$11:D11,0)&gt;0,0,1),1),0)</f>
         <v>1</v>
       </c>
-      <c r="O11">
-        <f>SUMIFS($M$11:$M$12006,$G$11:$G$12006,G11,$F$11:$F$12006,F11)</f>
+      <c r="Q11" s="1">
+        <f>SUMIFS($O$11:$O$12006,$G$11:$G$12006,G11,$F$11:$F$12006,F11,$E$11:$E$12006,E11)</f>
         <v>1</v>
       </c>
-      <c r="P11">
-        <f>IF(SUMIFS($M$11:M11,$G$11:G11,G11,$F$11:F11,F11)=1,1,0)</f>
+      <c r="R11" s="1">
+        <f>IF(SUMIFS($O$11:O11,$G$11:G11,G11,$F$11:F11,F11,$E$11:E11,E11)=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q11">
-        <f>IF(P11=1,1,0)</f>
+      <c r="S11" s="1">
+        <f>IF(R11=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="R11">
-        <f>IF(P11=1,SUMIFS($H$11:$H$12006,$G$11:$G$12006,G11,$F$11:$F$12006,F11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" t="e">
-        <f>ROUNDUP(R11*J11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" t="e">
-        <f>ROUNDUP(SQRT(R11*R11+S11*S11),2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U11">
-        <f>IF(N11=1,SUMIFS($H$11:$H$12006,$F$11:$F$12006,F11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" t="e">
-        <f>IF(N11=1,SUMIFS($S$11:$S$12006,$F$11:$F$12006,F11),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W11" t="e">
-        <f>IF(N11=1,SUMIFS($T$11:$T$12006,$F$11:$F$12006,F11),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X11" t="e">
-        <f>ROUNDUP(V11/U11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" t="e">
-        <f>ROUNDUP(COS(ATAN(X11)),2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="T11" s="1" t="str">
+        <f>IFERROR(IF(MATCH(D11,$E$11:$E$12000,0)&gt;0,D11,"-"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f>IFERROR(IF(MATCH(E11,$D$11:D11,0)&gt;0,INDEX($D$11:D11,MATCH(E11,$D$11:D11,0)),"-"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f>IF(IFERROR(MATCH(E11,$D$11:D11,0),0)&gt;0,INDEX($V$11:V11,MATCH(E11,$D$11:D11,0)),F11)</f>
+        <v>GC_HDGroup</v>
+      </c>
+      <c r="W11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4525,12 +5588,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2652C0-E32A-4424-80F0-EAFBD7621661}">
   <dimension ref="C3:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="D3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,13 +5610,13 @@
   <sheetData>
     <row r="3" spans="3:15" ht="45" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
@@ -4572,7 +5635,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -4584,10 +5647,10 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -4613,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +5710,7 @@
   <sheetData>
     <row r="3" spans="2:26" ht="90" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -4734,10 +5797,10 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -4749,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -4819,7 +5882,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4828,11 +5891,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE1986-1CF6-4370-AEB3-1DC97E00D4E1}">
+  <dimension ref="C3:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(D4&lt;&gt;D5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUMIFS($I$4:$I$12000,$E$4:$E$12000,D5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>IF(SUMIFS(I$5:$J5,D$5:$E5,D5)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(L5=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <f>IF(L5=1,SUMIFS($I$4:$I$12000,$E$4:$E$12000,D5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
   <dimension ref="A2:BO67"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="BG11" sqref="BG11"/>
+      <selection activeCell="AP12" sqref="AP12:AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,520 +6002,520 @@
   <sheetData>
     <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:67" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="F3" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="K3" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="88"/>
-      <c r="AZ3" s="88"/>
-      <c r="BA3" s="88"/>
-      <c r="BB3" s="88"/>
-      <c r="BC3" s="88"/>
-      <c r="BD3" s="88"/>
-      <c r="BE3" s="88"/>
-      <c r="BF3" s="88"/>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="88"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="F3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="K3" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="98"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="98"/>
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="98"/>
     </row>
     <row r="4" spans="1:67" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>220</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <f>B4</f>
         <v>220</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="54" t="s">
+      <c r="F4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="Z4" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="AA4" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="AB4" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC4" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="AD4" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="54" t="s">
+      <c r="AE4" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG4" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH4" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI4" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ4" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK4" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL4" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM4" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO4" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP4" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ4" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR4" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="AS4" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT4" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU4" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV4" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW4" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX4" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY4" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ4" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA4" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB4" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC4" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD4" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="BE4" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="BF4" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG4" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH4" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI4" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ4" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK4" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="BL4" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM4" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="BN4" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="R4" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="S4" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="T4" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="V4" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="W4" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="X4" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y4" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA4" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB4" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC4" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD4" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE4" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF4" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG4" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI4" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ4" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK4" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL4" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM4" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN4" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO4" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP4" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ4" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR4" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS4" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT4" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU4" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV4" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW4" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX4" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="AY4" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="AZ4" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="BA4" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB4" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="BD4" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="BE4" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF4" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG4" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="BH4" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI4" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="BJ4" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK4" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL4" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM4" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN4" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO4" s="54"/>
+      <c r="BO4" s="53"/>
     </row>
     <row r="5" spans="1:67" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>380</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <f>ROUNDUP(SQRT(3)*B5,2)</f>
         <v>658.18</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>6300</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>2.7E-2</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>2E-3</v>
       </c>
-      <c r="K5" s="75" t="str">
+      <c r="K5" s="74" t="str">
         <f>ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$K$6:$K$100</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="L5" s="74" t="str">
         <f t="shared" ref="L5:BN5" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$L$6:$L$100</v>
       </c>
-      <c r="M5" s="75" t="str">
+      <c r="M5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$M$6:$M$100</v>
       </c>
-      <c r="N5" s="75" t="str">
+      <c r="N5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$N$6:$N$100</v>
       </c>
-      <c r="O5" s="75" t="str">
+      <c r="O5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$O$6:$O$100</v>
       </c>
-      <c r="P5" s="75" t="str">
+      <c r="P5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$P$6:$P$100</v>
       </c>
-      <c r="Q5" s="75" t="str">
+      <c r="Q5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$Q$6:$Q$100</v>
       </c>
-      <c r="R5" s="75" t="str">
+      <c r="R5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$R$6:$R$100</v>
       </c>
-      <c r="S5" s="75" t="str">
+      <c r="S5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$S$6:$S$100</v>
       </c>
-      <c r="T5" s="75" t="str">
+      <c r="T5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$T$6:$T$100</v>
       </c>
-      <c r="U5" s="75" t="str">
+      <c r="U5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$U$6:$U$100</v>
       </c>
-      <c r="V5" s="75" t="str">
+      <c r="V5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$V$6:$V$100</v>
       </c>
-      <c r="W5" s="75" t="str">
+      <c r="W5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$W$6:$W$100</v>
       </c>
-      <c r="X5" s="75" t="str">
+      <c r="X5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$X$6:$X$100</v>
       </c>
-      <c r="Y5" s="75" t="str">
+      <c r="Y5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$Y$6:$Y$100</v>
       </c>
-      <c r="Z5" s="75" t="str">
+      <c r="Z5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$Z$6:$Z$100</v>
       </c>
-      <c r="AA5" s="75" t="str">
+      <c r="AA5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AA$6:$AA$100</v>
       </c>
-      <c r="AB5" s="75" t="str">
+      <c r="AB5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AB$6:$AB$100</v>
       </c>
-      <c r="AC5" s="75" t="str">
+      <c r="AC5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AC$6:$AC$100</v>
       </c>
-      <c r="AD5" s="75" t="str">
+      <c r="AD5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AD$6:$AD$100</v>
       </c>
-      <c r="AE5" s="75" t="str">
+      <c r="AE5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AE$6:$AE$100</v>
       </c>
-      <c r="AF5" s="75" t="str">
+      <c r="AF5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AF$6:$AF$100</v>
       </c>
-      <c r="AG5" s="75" t="str">
+      <c r="AG5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AG$6:$AG$100</v>
       </c>
-      <c r="AH5" s="75" t="str">
+      <c r="AH5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AH$6:$AH$100</v>
       </c>
-      <c r="AI5" s="75" t="str">
+      <c r="AI5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AI$6:$AI$100</v>
       </c>
-      <c r="AJ5" s="75" t="str">
+      <c r="AJ5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AJ$6:$AJ$100</v>
       </c>
-      <c r="AK5" s="75" t="str">
+      <c r="AK5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AK$6:$AK$100</v>
       </c>
-      <c r="AL5" s="75" t="str">
+      <c r="AL5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AL$6:$AL$100</v>
       </c>
-      <c r="AM5" s="75" t="str">
+      <c r="AM5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AM$6:$AM$100</v>
       </c>
-      <c r="AN5" s="75" t="str">
+      <c r="AN5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AN$6:$AN$100</v>
       </c>
-      <c r="AO5" s="75" t="str">
+      <c r="AO5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AO$6:$AO$100</v>
       </c>
-      <c r="AP5" s="75" t="str">
+      <c r="AP5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AP$6:$AP$100</v>
       </c>
-      <c r="AQ5" s="75" t="str">
+      <c r="AQ5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AQ$6:$AQ$100</v>
       </c>
-      <c r="AR5" s="75" t="str">
+      <c r="AR5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AR$6:$AR$100</v>
       </c>
-      <c r="AS5" s="75" t="str">
+      <c r="AS5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AS$6:$AS$100</v>
       </c>
-      <c r="AT5" s="75" t="str">
+      <c r="AT5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AT$6:$AT$100</v>
       </c>
-      <c r="AU5" s="75" t="str">
+      <c r="AU5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AU$6:$AU$100</v>
       </c>
-      <c r="AV5" s="75" t="str">
+      <c r="AV5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AV$6:$AV$100</v>
       </c>
-      <c r="AW5" s="75" t="str">
+      <c r="AW5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AW$6:$AW$100</v>
       </c>
-      <c r="AX5" s="75" t="str">
+      <c r="AX5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AX$6:$AX$100</v>
       </c>
-      <c r="AY5" s="75" t="str">
+      <c r="AY5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AY$6:$AY$100</v>
       </c>
-      <c r="AZ5" s="75" t="str">
+      <c r="AZ5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$AZ$6:$AZ$100</v>
       </c>
-      <c r="BA5" s="75" t="str">
+      <c r="BA5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BA$6:$BA$100</v>
       </c>
-      <c r="BB5" s="75" t="str">
+      <c r="BB5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BB$6:$BB$100</v>
       </c>
-      <c r="BC5" s="75" t="str">
+      <c r="BC5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BC$6:$BC$100</v>
       </c>
-      <c r="BD5" s="75" t="str">
+      <c r="BD5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BD$6:$BD$100</v>
       </c>
-      <c r="BE5" s="75" t="str">
+      <c r="BE5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BE$6:$BE$100</v>
       </c>
-      <c r="BF5" s="75" t="str">
+      <c r="BF5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BF$6:$BF$100</v>
       </c>
-      <c r="BG5" s="75" t="str">
+      <c r="BG5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BG$6:$BG$100</v>
       </c>
-      <c r="BH5" s="75" t="str">
+      <c r="BH5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BH$6:$BH$100</v>
       </c>
-      <c r="BI5" s="75" t="str">
+      <c r="BI5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BI$6:$BI$100</v>
       </c>
-      <c r="BJ5" s="75" t="str">
+      <c r="BJ5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BJ$6:$BJ$100</v>
       </c>
-      <c r="BK5" s="75" t="str">
+      <c r="BK5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BK$6:$BK$100</v>
       </c>
-      <c r="BL5" s="75" t="str">
+      <c r="BL5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BL$6:$BL$100</v>
       </c>
-      <c r="BM5" s="75" t="str">
+      <c r="BM5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BM$6:$BM$100</v>
       </c>
-      <c r="BN5" s="75" t="str">
+      <c r="BN5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>$BN$6:$BN$100</v>
       </c>
-      <c r="BO5" s="75"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>5000</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>2E-3</v>
       </c>
       <c r="K6" s="10">
@@ -5372,7 +6528,7 @@
         <v>2E-3</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -5389,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10">
@@ -5408,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD6" s="10">
         <v>0</v>
@@ -5429,17 +6585,17 @@
         <v>0</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK6" s="10">
         <v>4</v>
       </c>
       <c r="AL6" s="10"/>
-      <c r="AM6" s="10">
-        <v>32</v>
+      <c r="AM6" s="81">
+        <v>50</v>
       </c>
       <c r="AN6" s="10">
         <v>0</v>
@@ -5448,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10">
@@ -5467,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX6" s="10" t="str">
         <f t="shared" ref="AX6:AX36" si="1">"ТТИ-А "&amp;AT6&amp;"/5А 5ВА 0,5S"</f>
@@ -5486,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="BE6" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="BF6" s="10"/>
       <c r="BG6" s="10">
@@ -5505,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="BK6" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL6" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM6" s="10"/>
       <c r="BN6" s="10">
@@ -5517,13 +6673,13 @@
       <c r="BO6" s="10"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>4000</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>0.1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>0.05</v>
       </c>
       <c r="K7" s="10">
@@ -5536,7 +6692,7 @@
         <v>2E-3</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -5553,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10">
@@ -5572,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD7" s="10">
         <v>0</v>
@@ -5593,17 +6749,17 @@
         <v>0</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK7" s="10">
         <v>4</v>
       </c>
       <c r="AL7" s="10"/>
-      <c r="AM7" s="10">
-        <v>25</v>
+      <c r="AM7" s="81">
+        <v>40</v>
       </c>
       <c r="AN7" s="10">
         <v>0</v>
@@ -5612,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10">
@@ -5631,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5651,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="BE7" s="10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10">
@@ -5670,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="BK7" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL7" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM7" s="10"/>
       <c r="BN7" s="10">
@@ -5682,13 +6838,13 @@
       <c r="BO7" s="10"/>
     </row>
     <row r="8" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>3200</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>0.12</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>0.06</v>
       </c>
       <c r="K8" s="10">
@@ -5701,7 +6857,7 @@
         <v>0.05</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -5718,10 +6874,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10">
@@ -5737,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD8" s="10">
         <v>0</v>
@@ -5758,17 +6914,17 @@
         <v>0</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK8" s="10">
         <v>4</v>
       </c>
       <c r="AL8" s="10"/>
       <c r="AM8" s="10">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AN8" s="10">
         <v>0</v>
@@ -5777,10 +6933,10 @@
         <v>0</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10">
@@ -5796,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5829,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="BK8" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL8" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM8" s="10"/>
       <c r="BN8" s="10">
@@ -5841,17 +6997,17 @@
       <c r="BO8" s="10"/>
     </row>
     <row r="9" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="F9" s="37">
+      <c r="B9" s="96"/>
+      <c r="F9" s="36">
         <v>2500</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>0.13</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K9" s="10">
@@ -5864,7 +7020,7 @@
         <v>0.06</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -5881,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10">
@@ -5900,10 +7056,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD9" s="10">
         <v>0</v>
@@ -5921,17 +7077,17 @@
         <v>0</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK9" s="10">
         <v>4</v>
       </c>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AN9" s="10">
         <v>0</v>
@@ -5940,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10">
@@ -5959,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5992,10 +7148,10 @@
         <v>0</v>
       </c>
       <c r="BK9" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL9" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM9" s="10"/>
       <c r="BN9" s="10">
@@ -6004,19 +7160,19 @@
       <c r="BO9" s="10"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="A10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="36">
         <v>2000</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K10" s="10">
@@ -6029,7 +7185,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -6046,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10">
@@ -6065,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD10" s="10">
         <v>0</v>
@@ -6086,17 +7242,17 @@
         <v>0</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK10" s="10">
         <v>4</v>
       </c>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN10" s="10">
         <v>0</v>
@@ -6105,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10">
@@ -6124,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6157,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="BK10" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL10" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM10" s="10"/>
       <c r="BN10" s="10">
@@ -6169,19 +7325,19 @@
       <c r="BO10" s="10"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="A11" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="36">
         <v>1600</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>0.08</v>
       </c>
       <c r="K11" s="10">
@@ -6194,7 +7350,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -6211,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10">
@@ -6230,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD11" s="10">
         <v>0</v>
@@ -6251,17 +7407,17 @@
         <v>0</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK11" s="10">
         <v>4</v>
       </c>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN11" s="10">
         <v>0</v>
@@ -6269,8 +7425,12 @@
       <c r="AO11" s="10">
         <v>0</v>
       </c>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
+      <c r="AP11" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ11" s="81" t="s">
+        <v>255</v>
+      </c>
       <c r="AR11" s="10"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="10">
@@ -6283,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="AW11" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6316,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="BK11" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL11" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM11" s="10"/>
       <c r="BN11" s="10">
@@ -6328,19 +7488,19 @@
       <c r="BO11" s="10"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="A12" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="36">
         <v>1250</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>0.2</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>0.09</v>
       </c>
       <c r="K12" s="10">
@@ -6353,7 +7513,7 @@
         <v>0.08</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -6370,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10">
@@ -6389,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD12" s="10">
         <v>0</v>
@@ -6410,17 +7570,17 @@
         <v>0</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK12" s="10">
         <v>4</v>
       </c>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN12" s="10">
         <v>0</v>
@@ -6428,8 +7588,12 @@
       <c r="AO12" s="10">
         <v>0</v>
       </c>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
+      <c r="AP12" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ12" s="81" t="s">
+        <v>255</v>
+      </c>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10">
@@ -6442,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6475,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="BK12" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL12" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM12" s="10"/>
       <c r="BN12" s="10">
@@ -6487,19 +7651,19 @@
       <c r="BO12" s="10"/>
     </row>
     <row r="13" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="A13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="36">
         <v>1000</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>0.25</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <v>0.1</v>
       </c>
       <c r="K13" s="10">
@@ -6512,7 +7676,7 @@
         <v>0.09</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -6542,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD13" s="10">
         <v>0</v>
@@ -6563,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AK13" s="10">
         <v>4</v>
@@ -6595,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="AW13" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6628,10 +7792,10 @@
         <v>0</v>
       </c>
       <c r="BK13" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL13" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM13" s="10"/>
       <c r="BN13" s="10">
@@ -6640,13 +7804,13 @@
       <c r="BO13" s="10"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>800</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>0.33</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>0.115</v>
       </c>
       <c r="K14" s="10">
@@ -6659,7 +7823,7 @@
         <v>0.1</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -6679,7 +7843,7 @@
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="76">
+      <c r="Y14" s="75">
         <v>10</v>
       </c>
       <c r="Z14" s="10">
@@ -6689,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD14" s="10">
         <v>0</v>
@@ -6700,7 +7864,7 @@
       <c r="AE14" s="10">
         <v>3</v>
       </c>
-      <c r="AF14" s="76">
+      <c r="AF14" s="75">
         <v>0</v>
       </c>
       <c r="AG14" s="10">
@@ -6726,7 +7890,7 @@
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
-      <c r="AT14" s="76">
+      <c r="AT14" s="75">
         <v>1000</v>
       </c>
       <c r="AU14" s="10">
@@ -6736,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6759,7 +7923,7 @@
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
-      <c r="BH14" s="76">
+      <c r="BH14" s="75">
         <v>10</v>
       </c>
       <c r="BI14" s="10">
@@ -6769,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="BK14" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL14" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10">
@@ -6781,13 +7945,13 @@
       <c r="BO14" s="10"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>630</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>0.41</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <v>0.13</v>
       </c>
       <c r="K15" s="10">
@@ -6800,7 +7964,7 @@
         <v>0.115</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -6820,7 +7984,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="76">
+      <c r="Y15" s="75">
         <v>6</v>
       </c>
       <c r="Z15" s="10">
@@ -6830,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD15" s="10">
         <v>0</v>
@@ -6841,7 +8005,7 @@
       <c r="AE15" s="10">
         <v>3</v>
       </c>
-      <c r="AF15" s="76">
+      <c r="AF15" s="75">
         <v>0</v>
       </c>
       <c r="AG15" s="10">
@@ -6867,7 +8031,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
-      <c r="AT15" s="76">
+      <c r="AT15" s="75">
         <v>800</v>
       </c>
       <c r="AU15" s="10">
@@ -6877,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6900,7 +8064,7 @@
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
-      <c r="BH15" s="76">
+      <c r="BH15" s="75">
         <v>8</v>
       </c>
       <c r="BI15" s="10">
@@ -6910,10 +8074,10 @@
         <v>0</v>
       </c>
       <c r="BK15" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL15" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM15" s="10"/>
       <c r="BN15" s="10">
@@ -6922,13 +8086,13 @@
       <c r="BO15" s="10"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>400</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>0.65</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>0.01</v>
       </c>
       <c r="K16" s="10">
@@ -6941,7 +8105,7 @@
         <v>0.13</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -6961,7 +8125,7 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="76">
+      <c r="Y16" s="75">
         <v>0</v>
       </c>
       <c r="Z16" s="10">
@@ -6980,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="10"/>
-      <c r="AF16" s="76">
+      <c r="AF16" s="75">
         <v>0</v>
       </c>
       <c r="AG16" s="10">
@@ -7006,7 +8170,7 @@
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
-      <c r="AT16" s="76">
+      <c r="AT16" s="75">
         <v>750</v>
       </c>
       <c r="AU16" s="10">
@@ -7016,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7039,7 +8203,7 @@
       <c r="BE16" s="10"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
-      <c r="BH16" s="76">
+      <c r="BH16" s="75">
         <v>6</v>
       </c>
       <c r="BI16" s="10">
@@ -7049,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="BK16" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL16" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM16" s="10"/>
       <c r="BN16" s="10">
@@ -7061,13 +8225,13 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>250</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>0.875</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>0.255</v>
       </c>
       <c r="K17" s="10">
@@ -7080,7 +8244,7 @@
         <v>0.01</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -7100,7 +8264,7 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="76">
+      <c r="Y17" s="75">
         <v>0</v>
       </c>
       <c r="Z17" s="10">
@@ -7119,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="10"/>
-      <c r="AF17" s="76">
+      <c r="AF17" s="75">
         <v>0</v>
       </c>
       <c r="AG17" s="10">
@@ -7145,7 +8309,7 @@
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
-      <c r="AT17" s="76">
+      <c r="AT17" s="75">
         <v>600</v>
       </c>
       <c r="AU17" s="10">
@@ -7155,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7178,7 +8342,7 @@
       <c r="BE17" s="10"/>
       <c r="BF17" s="10"/>
       <c r="BG17" s="10"/>
-      <c r="BH17" s="76">
+      <c r="BH17" s="75">
         <v>4</v>
       </c>
       <c r="BI17" s="10">
@@ -7188,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="BK17" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL17" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM17" s="10"/>
       <c r="BN17" s="10">
@@ -7200,13 +8364,13 @@
       <c r="BO17" s="10"/>
     </row>
     <row r="18" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>200</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>0.5</v>
       </c>
       <c r="K18" s="10">
@@ -7219,7 +8383,7 @@
         <v>0.255</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -7239,7 +8403,7 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="76">
+      <c r="Y18" s="75">
         <v>0</v>
       </c>
       <c r="Z18" s="10">
@@ -7258,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="10"/>
-      <c r="AF18" s="76">
+      <c r="AF18" s="75">
         <v>0</v>
       </c>
       <c r="AG18" s="10">
@@ -7284,7 +8448,7 @@
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
-      <c r="AT18" s="76">
+      <c r="AT18" s="75">
         <v>500</v>
       </c>
       <c r="AU18" s="10">
@@ -7294,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7317,7 +8481,7 @@
       <c r="BE18" s="10"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="10"/>
-      <c r="BH18" s="76">
+      <c r="BH18" s="75">
         <v>2.5</v>
       </c>
       <c r="BI18" s="10">
@@ -7327,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="BK18" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL18" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM18" s="10"/>
       <c r="BN18" s="10">
@@ -7339,13 +8503,13 @@
       <c r="BO18" s="10"/>
     </row>
     <row r="19" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>160</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>1.3</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>0.7</v>
       </c>
       <c r="K19" s="10">
@@ -7358,7 +8522,7 @@
         <v>0.5</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -7378,7 +8542,7 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="76">
+      <c r="Y19" s="75">
         <v>0</v>
       </c>
       <c r="Z19" s="10">
@@ -7397,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="10"/>
-      <c r="AF19" s="76">
+      <c r="AF19" s="75">
         <v>0</v>
       </c>
       <c r="AG19" s="10">
@@ -7423,7 +8587,7 @@
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
-      <c r="AT19" s="76">
+      <c r="AT19" s="75">
         <v>400</v>
       </c>
       <c r="AU19" s="10">
@@ -7433,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7456,7 +8620,7 @@
       <c r="BE19" s="10"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
-      <c r="BH19" s="76">
+      <c r="BH19" s="75">
         <v>1.6</v>
       </c>
       <c r="BI19" s="10">
@@ -7466,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="BK19" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL19" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM19" s="10"/>
       <c r="BN19" s="10">
@@ -7478,13 +8642,13 @@
       <c r="BO19" s="10"/>
     </row>
     <row r="20" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>125</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>1.7250000000000001</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>0.95</v>
       </c>
       <c r="K20" s="10">
@@ -7497,7 +8661,7 @@
         <v>0.7</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -7517,7 +8681,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="76">
+      <c r="Y20" s="75">
         <v>0</v>
       </c>
       <c r="Z20" s="10">
@@ -7536,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="10"/>
-      <c r="AF20" s="76">
+      <c r="AF20" s="75">
         <v>0</v>
       </c>
       <c r="AG20" s="10">
@@ -7562,7 +8726,7 @@
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
-      <c r="AT20" s="76">
+      <c r="AT20" s="75">
         <v>300</v>
       </c>
       <c r="AU20" s="10">
@@ -7572,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="AW20" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7595,7 +8759,7 @@
       <c r="BE20" s="10"/>
       <c r="BF20" s="10"/>
       <c r="BG20" s="10"/>
-      <c r="BH20" s="76">
+      <c r="BH20" s="75">
         <v>1</v>
       </c>
       <c r="BI20" s="10">
@@ -7605,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="BK20" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL20" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10">
@@ -7617,13 +8781,13 @@
       <c r="BO20" s="10"/>
     </row>
     <row r="21" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <v>100</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>2.15</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="38">
         <v>1.2</v>
       </c>
       <c r="K21" s="10">
@@ -7636,7 +8800,7 @@
         <v>0.95</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -7656,7 +8820,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="76">
+      <c r="Y21" s="75">
         <v>0</v>
       </c>
       <c r="Z21" s="10">
@@ -7675,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="10"/>
-      <c r="AF21" s="76">
+      <c r="AF21" s="75">
         <v>0</v>
       </c>
       <c r="AG21" s="10">
@@ -7701,7 +8865,7 @@
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
-      <c r="AT21" s="76">
+      <c r="AT21" s="75">
         <v>250</v>
       </c>
       <c r="AU21" s="10">
@@ -7711,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX21" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7734,7 +8898,7 @@
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
-      <c r="BH21" s="76">
+      <c r="BH21" s="75">
         <v>0.6</v>
       </c>
       <c r="BI21" s="10">
@@ -7744,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="BK21" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="BL21" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BM21" s="10"/>
       <c r="BN21" s="10">
@@ -7756,13 +8920,13 @@
       <c r="BO21" s="10"/>
     </row>
     <row r="22" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>80</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>2.83</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>1.6</v>
       </c>
       <c r="K22" s="10">
@@ -7775,7 +8939,7 @@
         <v>1.2</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -7795,7 +8959,7 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="76">
+      <c r="Y22" s="75">
         <v>0</v>
       </c>
       <c r="Z22" s="10">
@@ -7814,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="10"/>
-      <c r="AF22" s="76">
+      <c r="AF22" s="75">
         <v>0</v>
       </c>
       <c r="AG22" s="10">
@@ -7840,7 +9004,7 @@
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
-      <c r="AT22" s="76">
+      <c r="AT22" s="75">
         <v>200</v>
       </c>
       <c r="AU22" s="10">
@@ -7850,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7891,13 +9055,13 @@
       <c r="BO22" s="10"/>
     </row>
     <row r="23" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>63</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>3.5</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="38">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -7910,7 +9074,7 @@
         <v>1.6</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -7930,7 +9094,7 @@
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="76">
+      <c r="Y23" s="75">
         <v>0</v>
       </c>
       <c r="Z23" s="10">
@@ -7949,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="10"/>
-      <c r="AF23" s="76">
+      <c r="AF23" s="75">
         <v>0</v>
       </c>
       <c r="AG23" s="10">
@@ -7975,7 +9139,7 @@
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
-      <c r="AT23" s="76">
+      <c r="AT23" s="75">
         <v>150</v>
       </c>
       <c r="AU23" s="10">
@@ -7985,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8026,13 +9190,13 @@
       <c r="BO23" s="10"/>
     </row>
     <row r="24" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>50</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>7</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="38">
         <v>4.5</v>
       </c>
       <c r="K24" s="10">
@@ -8045,10 +9209,10 @@
         <v>2</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10">
@@ -8067,7 +9231,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="76">
+      <c r="Y24" s="75">
         <v>0</v>
       </c>
       <c r="Z24" s="10">
@@ -8086,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="10"/>
-      <c r="AF24" s="76">
+      <c r="AF24" s="75">
         <v>0</v>
       </c>
       <c r="AG24" s="10">
@@ -8112,7 +9276,7 @@
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="76">
+      <c r="AT24" s="75">
         <v>125</v>
       </c>
       <c r="AU24" s="10">
@@ -8122,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8163,13 +9327,13 @@
       <c r="BO24" s="10"/>
     </row>
     <row r="25" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>40</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="39">
         <v>10.5</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="40">
         <v>7</v>
       </c>
       <c r="K25" s="10">
@@ -8182,10 +9346,10 @@
         <v>4.5</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10">
@@ -8204,7 +9368,7 @@
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="76">
+      <c r="Y25" s="75">
         <v>0</v>
       </c>
       <c r="Z25" s="10">
@@ -8223,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="10"/>
-      <c r="AF25" s="76">
+      <c r="AF25" s="75">
         <v>0</v>
       </c>
       <c r="AG25" s="10">
@@ -8249,7 +9413,7 @@
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
-      <c r="AT25" s="76">
+      <c r="AT25" s="75">
         <v>120</v>
       </c>
       <c r="AU25" s="10">
@@ -8259,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX25" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8300,13 +9464,13 @@
       <c r="BO25" s="10"/>
     </row>
     <row r="26" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>32</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="39">
         <v>14</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="40">
         <v>9.5</v>
       </c>
       <c r="K26" s="10">
@@ -8319,10 +9483,10 @@
         <v>7</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10">
@@ -8341,7 +9505,7 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
-      <c r="Y26" s="76">
+      <c r="Y26" s="75">
         <v>0</v>
       </c>
       <c r="Z26" s="10">
@@ -8360,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="10"/>
-      <c r="AF26" s="76">
+      <c r="AF26" s="75">
         <v>0</v>
       </c>
       <c r="AG26" s="10">
@@ -8386,7 +9550,7 @@
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
-      <c r="AT26" s="76">
+      <c r="AT26" s="75">
         <v>100</v>
       </c>
       <c r="AU26" s="10">
@@ -8396,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8437,13 +9601,13 @@
       <c r="BO26" s="10"/>
     </row>
     <row r="27" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>25</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <v>17.5</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="40">
         <v>12</v>
       </c>
       <c r="K27" s="10">
@@ -8456,10 +9620,10 @@
         <v>9.5</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10">
@@ -8478,7 +9642,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-      <c r="Y27" s="76">
+      <c r="Y27" s="75">
         <v>0</v>
       </c>
       <c r="Z27" s="10">
@@ -8497,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="10"/>
-      <c r="AF27" s="76">
+      <c r="AF27" s="75">
         <v>0</v>
       </c>
       <c r="AG27" s="10">
@@ -8523,7 +9687,7 @@
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
-      <c r="AT27" s="76">
+      <c r="AT27" s="75">
         <v>80</v>
       </c>
       <c r="AU27" s="10">
@@ -8533,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8574,13 +9738,13 @@
       <c r="BO27" s="10"/>
     </row>
     <row r="28" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>20</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <v>21</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="40">
         <v>14.5</v>
       </c>
       <c r="K28" s="10">
@@ -8593,10 +9757,10 @@
         <v>12</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10">
@@ -8615,7 +9779,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="Y28" s="76">
+      <c r="Y28" s="75">
         <v>0</v>
       </c>
       <c r="Z28" s="10">
@@ -8634,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="10"/>
-      <c r="AF28" s="76">
+      <c r="AF28" s="75">
         <v>0</v>
       </c>
       <c r="AG28" s="10">
@@ -8660,7 +9824,7 @@
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
-      <c r="AT28" s="76">
+      <c r="AT28" s="75">
         <v>75</v>
       </c>
       <c r="AU28" s="10">
@@ -8670,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8711,13 +9875,13 @@
       <c r="BO28" s="10"/>
     </row>
     <row r="29" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>16</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <v>24.5</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="40">
         <v>17</v>
       </c>
       <c r="K29" s="10">
@@ -8730,10 +9894,10 @@
         <v>14.5</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10">
@@ -8752,7 +9916,7 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="76">
+      <c r="Y29" s="75">
         <v>0</v>
       </c>
       <c r="Z29" s="10">
@@ -8771,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="10"/>
-      <c r="AF29" s="76">
+      <c r="AF29" s="75">
         <v>0</v>
       </c>
       <c r="AG29" s="10">
@@ -8797,7 +9961,7 @@
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
       <c r="AS29" s="10"/>
-      <c r="AT29" s="76">
+      <c r="AT29" s="75">
         <v>60</v>
       </c>
       <c r="AU29" s="10">
@@ -8807,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8848,13 +10012,13 @@
       <c r="BO29" s="10"/>
     </row>
     <row r="30" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <v>10</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <v>31.5</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="40">
         <v>22</v>
       </c>
       <c r="K30" s="10">
@@ -8867,10 +10031,10 @@
         <v>17</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10">
@@ -8889,7 +10053,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
-      <c r="Y30" s="76">
+      <c r="Y30" s="75">
         <v>0</v>
       </c>
       <c r="Z30" s="10">
@@ -8908,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="10"/>
-      <c r="AF30" s="76">
+      <c r="AF30" s="75">
         <v>0</v>
       </c>
       <c r="AG30" s="10">
@@ -8934,7 +10098,7 @@
       <c r="AQ30" s="10"/>
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
-      <c r="AT30" s="76">
+      <c r="AT30" s="75">
         <v>50</v>
       </c>
       <c r="AU30" s="10">
@@ -8944,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8985,13 +10149,13 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>6</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <v>35</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="40">
         <v>24.5</v>
       </c>
       <c r="K31" s="10">
@@ -9004,10 +10168,10 @@
         <v>22</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10">
@@ -9026,7 +10190,7 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="76">
+      <c r="Y31" s="75">
         <v>0</v>
       </c>
       <c r="Z31" s="10">
@@ -9045,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="10"/>
-      <c r="AF31" s="76">
+      <c r="AF31" s="75">
         <v>0</v>
       </c>
       <c r="AG31" s="10">
@@ -9071,7 +10235,7 @@
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
       <c r="AS31" s="10"/>
-      <c r="AT31" s="76">
+      <c r="AT31" s="75">
         <v>40</v>
       </c>
       <c r="AU31" s="10">
@@ -9081,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX31" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9122,13 +10286,13 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>4</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>38.5</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="40">
         <v>27</v>
       </c>
       <c r="K32" s="10">
@@ -9141,10 +10305,10 @@
         <v>24.5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10">
@@ -9163,7 +10327,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="76">
+      <c r="Y32" s="75">
         <v>0</v>
       </c>
       <c r="Z32" s="10">
@@ -9182,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="76">
+      <c r="AF32" s="75">
         <v>0</v>
       </c>
       <c r="AG32" s="10">
@@ -9208,7 +10372,7 @@
       <c r="AQ32" s="10"/>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
-      <c r="AT32" s="76">
+      <c r="AT32" s="75">
         <v>30</v>
       </c>
       <c r="AU32" s="10">
@@ -9218,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX32" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9259,13 +10423,13 @@
       <c r="BO32" s="10"/>
     </row>
     <row r="33" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>2</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="39">
         <v>42</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="40">
         <v>29.5</v>
       </c>
       <c r="K33" s="10">
@@ -9278,10 +10442,10 @@
         <v>27</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10">
@@ -9300,7 +10464,7 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="76">
+      <c r="Y33" s="75">
         <v>0</v>
       </c>
       <c r="Z33" s="10">
@@ -9319,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="10"/>
-      <c r="AF33" s="76">
+      <c r="AF33" s="75">
         <v>0</v>
       </c>
       <c r="AG33" s="10">
@@ -9345,7 +10509,7 @@
       <c r="AQ33" s="10"/>
       <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
-      <c r="AT33" s="76">
+      <c r="AT33" s="75">
         <v>25</v>
       </c>
       <c r="AU33" s="10">
@@ -9355,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AW33" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9396,13 +10560,13 @@
       <c r="BO33" s="10"/>
     </row>
     <row r="34" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>1.6</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="39">
         <v>45.5</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="40">
         <v>32</v>
       </c>
       <c r="K34" s="10">
@@ -9415,10 +10579,10 @@
         <v>29.5</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10">
@@ -9437,7 +10601,7 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="76">
+      <c r="Y34" s="75">
         <v>0</v>
       </c>
       <c r="Z34" s="10">
@@ -9456,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="10"/>
-      <c r="AF34" s="76">
+      <c r="AF34" s="75">
         <v>0</v>
       </c>
       <c r="AG34" s="10">
@@ -9482,7 +10646,7 @@
       <c r="AQ34" s="10"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
-      <c r="AT34" s="76">
+      <c r="AT34" s="75">
         <v>20</v>
       </c>
       <c r="AU34" s="10">
@@ -9492,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX34" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9533,13 +10697,13 @@
       <c r="BO34" s="10"/>
     </row>
     <row r="35" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>1</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="39">
         <v>47.25</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="40">
         <v>33.25</v>
       </c>
       <c r="K35" s="10">
@@ -9552,10 +10716,10 @@
         <v>32</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10">
@@ -9574,7 +10738,7 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
-      <c r="Y35" s="76">
+      <c r="Y35" s="75">
         <v>0</v>
       </c>
       <c r="Z35" s="10">
@@ -9593,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="10"/>
-      <c r="AF35" s="76">
+      <c r="AF35" s="75">
         <v>0</v>
       </c>
       <c r="AG35" s="10">
@@ -9619,7 +10783,7 @@
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
-      <c r="AT35" s="76">
+      <c r="AT35" s="75">
         <v>15</v>
       </c>
       <c r="AU35" s="10">
@@ -9629,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9670,13 +10834,13 @@
       <c r="BO35" s="10"/>
     </row>
     <row r="36" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="43">
+      <c r="F36" s="42">
         <v>0.4</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="43">
         <v>49</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="44">
         <v>34.5</v>
       </c>
       <c r="K36" s="10">
@@ -9689,10 +10853,10 @@
         <v>33.25</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10">
@@ -9711,7 +10875,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-      <c r="Y36" s="76">
+      <c r="Y36" s="75">
         <v>0</v>
       </c>
       <c r="Z36" s="10">
@@ -9730,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="10"/>
-      <c r="AF36" s="76">
+      <c r="AF36" s="75">
         <v>0</v>
       </c>
       <c r="AG36" s="10">
@@ -9756,7 +10920,7 @@
       <c r="AQ36" s="10"/>
       <c r="AR36" s="10"/>
       <c r="AS36" s="10"/>
-      <c r="AT36" s="76">
+      <c r="AT36" s="75">
         <v>10</v>
       </c>
       <c r="AU36" s="10">
@@ -9766,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9817,10 +10981,10 @@
         <v>34.5</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10">
@@ -9839,7 +11003,7 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="76">
+      <c r="Y37" s="75">
         <v>0</v>
       </c>
       <c r="Z37" s="10">
@@ -9858,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="10"/>
-      <c r="AF37" s="76">
+      <c r="AF37" s="75">
         <v>0</v>
       </c>
       <c r="AG37" s="10">
@@ -9884,7 +11048,7 @@
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
-      <c r="AT37" s="76">
+      <c r="AT37" s="75">
         <v>5</v>
       </c>
       <c r="AU37" s="10">
@@ -9894,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AX37" s="10" t="str">
         <f>"ТТИ-А "&amp;AT37&amp;"/5А 5ВА 0,5S"</f>
@@ -9956,7 +11120,7 @@
       <c r="Q38" s="10">
         <v>0</v>
       </c>
-      <c r="R38" s="76">
+      <c r="R38" s="75">
         <v>0</v>
       </c>
       <c r="S38" s="10">
@@ -9969,7 +11133,7 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="76">
+      <c r="Y38" s="75">
         <v>0</v>
       </c>
       <c r="Z38" s="10">
@@ -10004,7 +11168,7 @@
       <c r="AM38" s="10">
         <v>0</v>
       </c>
-      <c r="AN38" s="76">
+      <c r="AN38" s="75">
         <v>0</v>
       </c>
       <c r="AO38" s="10">
@@ -10017,7 +11181,7 @@
       <c r="AT38" s="10">
         <v>0</v>
       </c>
-      <c r="AU38" s="76">
+      <c r="AU38" s="75">
         <v>0</v>
       </c>
       <c r="AV38" s="10">
@@ -10030,7 +11194,7 @@
       <c r="BA38" s="10">
         <v>0</v>
       </c>
-      <c r="BB38" s="76">
+      <c r="BB38" s="75">
         <v>0</v>
       </c>
       <c r="BC38" s="10">
@@ -10059,75 +11223,75 @@
     </row>
     <row r="41" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
+      <c r="F42" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
     </row>
     <row r="43" spans="6:67" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="F43" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>115</v>
+      <c r="F43" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <v>125</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>100</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>63</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>40</v>
       </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="6:67" x14ac:dyDescent="0.25">
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>32</v>
       </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>25</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>20</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H61">
         <f>INDEX(BD!$Z$7:$Z$11974,MATCH(BH24,BD!$Z$7:$Z$11974,-1))</f>
@@ -10161,113 +11325,118 @@
     <mergeCell ref="K3:BO3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="K6:M37 R13:W37 R6:T12 V6:AA6 AF6:AX6 V7:W12 X7:AA37 AF7:AY37 BA6:BI37 BL6:BO37">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+  <conditionalFormatting sqref="K6:M37 R13:W37 R6:T12 V6:AA6 V7:W12 X7:AA37 BA6:BI37 BL6:BO37 AN6:AX6 AF13:AY37 AF6:AL12 AM8:AM12 AN7:AY12">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M38 R38:AA38 AF38:AG38">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38:AN38">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38:BI38 BL38:BO38">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q37">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:Q38">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AC15">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AE38">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AB37">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC37">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AE6 AD7 AE7:AE15">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD11">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AD14">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:AE36 AD15">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37:AE37">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ6:BJ37">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ38">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK6:BK37">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK38">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM6:AM7">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10276,7 +11445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B6AA6F-5182-413B-A37A-EA05D8E4268E}">
   <dimension ref="B1:AH12"/>
   <sheetViews>
@@ -10288,272 +11457,272 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="99"/>
+    </row>
+    <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="89"/>
-    </row>
-    <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="E3" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="L3" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="M3" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="N3" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="O3" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="P3" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="Q3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="R3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="S3" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="T3" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="U3" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="V3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="W3" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="X3" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="Y3" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="Z3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="AA3" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="AB3" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="AC3" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="AD3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="AE3" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="AF3" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AG3" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" s="54" t="s">
+      <c r="AH3" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="AC3" s="54" t="s">
+    </row>
+    <row r="4" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE3" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF3" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG3" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH3" s="54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="56" t="str">
+      <c r="C4" s="55" t="str">
         <f>ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$C$5:$C$100</v>
       </c>
-      <c r="D4" s="56" t="str">
+      <c r="D4" s="55" t="str">
         <f t="shared" ref="D4:AH4" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$D$5:$D$100</v>
       </c>
-      <c r="E4" s="56" t="str">
+      <c r="E4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$E$5:$E$100</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$F$5:$F$100</v>
       </c>
-      <c r="G4" s="56" t="str">
+      <c r="G4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$G$5:$G$100</v>
       </c>
-      <c r="H4" s="56" t="str">
+      <c r="H4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$H$5:$H$100</v>
       </c>
-      <c r="I4" s="56" t="str">
+      <c r="I4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$I$5:$I$100</v>
       </c>
-      <c r="J4" s="56" t="str">
+      <c r="J4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$J$5:$J$100</v>
       </c>
-      <c r="K4" s="56" t="str">
+      <c r="K4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$K$5:$K$100</v>
       </c>
-      <c r="L4" s="56" t="str">
+      <c r="L4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$L$5:$L$100</v>
       </c>
-      <c r="M4" s="56" t="str">
+      <c r="M4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$M$5:$M$100</v>
       </c>
-      <c r="N4" s="56" t="str">
+      <c r="N4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$N$5:$N$100</v>
       </c>
-      <c r="O4" s="56" t="str">
+      <c r="O4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$O$5:$O$100</v>
       </c>
-      <c r="P4" s="56" t="str">
+      <c r="P4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$P$5:$P$100</v>
       </c>
-      <c r="Q4" s="56" t="str">
+      <c r="Q4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$Q$5:$Q$100</v>
       </c>
-      <c r="R4" s="56" t="str">
+      <c r="R4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$R$5:$R$100</v>
       </c>
-      <c r="S4" s="56" t="str">
+      <c r="S4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$S$5:$S$100</v>
       </c>
-      <c r="T4" s="56" t="str">
+      <c r="T4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$T$5:$T$100</v>
       </c>
-      <c r="U4" s="56" t="str">
+      <c r="U4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$U$5:$U$100</v>
       </c>
-      <c r="V4" s="56" t="str">
+      <c r="V4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$V$5:$V$100</v>
       </c>
-      <c r="W4" s="56" t="str">
+      <c r="W4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$W$5:$W$100</v>
       </c>
-      <c r="X4" s="56" t="str">
+      <c r="X4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$X$5:$X$100</v>
       </c>
-      <c r="Y4" s="56" t="str">
+      <c r="Y4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$Y$5:$Y$100</v>
       </c>
-      <c r="Z4" s="56" t="str">
+      <c r="Z4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$Z$5:$Z$100</v>
       </c>
-      <c r="AA4" s="56" t="str">
+      <c r="AA4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AA$5:$AA$100</v>
       </c>
-      <c r="AB4" s="56" t="str">
+      <c r="AB4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AB$5:$AB$100</v>
       </c>
-      <c r="AC4" s="56" t="str">
+      <c r="AC4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AC$5:$AC$100</v>
       </c>
-      <c r="AD4" s="56" t="str">
+      <c r="AD4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AD$5:$AD$100</v>
       </c>
-      <c r="AE4" s="56" t="str">
+      <c r="AE4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AE$5:$AE$100</v>
       </c>
-      <c r="AF4" s="56" t="str">
+      <c r="AF4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AF$5:$AF$100</v>
       </c>
-      <c r="AG4" s="56" t="str">
+      <c r="AG4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AG$5:$AG$100</v>
       </c>
-      <c r="AH4" s="56" t="str">
+      <c r="AH4" s="55" t="str">
         <f t="shared" si="0"/>
         <v>$AH$5:$AH$100</v>
       </c>
@@ -10563,25 +11732,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" s="10">
         <v>100000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J5" s="10">
         <v>100000</v>
@@ -10590,70 +11759,70 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N5" s="10">
         <v>100000</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R5" s="10">
         <v>100000</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="V5" s="10">
         <v>100000</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Z5" s="10">
         <v>100000</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AD5" s="10">
         <v>100000</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AH5" s="10">
         <v>100000</v>
@@ -10716,52 +11885,52 @@
         <v>12.600999999999999</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
@@ -11246,7 +12415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848FBB42-6EAE-4F08-93DD-9279D3853880}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -11263,483 +12432,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
+      <c r="B1" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>1*5</f>
         <v>5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>6</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>9</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>12</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>15</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>18</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>24</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>40</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>60</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>100</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>200</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>400</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>600</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="A4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="26">
         <v>4.5</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>4.5</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>4.5</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>2.8</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>1.8</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>1.65</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <v>1.4</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>1.2</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>1.05</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>0.85</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <v>0.77</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <v>0.71</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>0.69</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>1*5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>9</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>12</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>15</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>18</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>24</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>40</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>60</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>100</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>200</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>400</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>600</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="A6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="26">
         <v>6</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>6</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>3.4</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>2.9</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>2.5</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>1.8</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>1.4</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>1.3</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>1.08</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>1</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>0.92</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>0.84</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>1*5</f>
         <v>5</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>9</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>12</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>15</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>18</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>24</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>40</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>60</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>100</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>200</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>400</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>600</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="27">
         <v>10</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>10</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>10</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>3.8</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>3.2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>2.8</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>2.6</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>1.95</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>1.7</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>1.5</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>1.36</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>1.27</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>1.23</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <v>1.19</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f>1*5</f>
         <v>5</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>6</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>9</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>12</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>15</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>18</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>24</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>40</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>60</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>100</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>200</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>400</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>600</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="A10" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
         <v>4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>1.7</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>1.4</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>1.2</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>0.9</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>0.76</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>0.69</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <v>0.61</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>0.54</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>0.51</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="18">
         <v>0.46</v>
       </c>
     </row>
@@ -11753,7 +12922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D3B741-841A-4380-8CF6-69D9C360B6A6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -11768,12 +12937,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -11781,7 +12950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E9D57B-03FA-4732-B562-B52ADE28B03D}">
   <dimension ref="B1:I5"/>
   <sheetViews>
@@ -11801,24 +12970,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="D1" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -11847,7 +13016,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -11859,7 +13028,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -11877,7 +13046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBE0E3-93E9-4D98-927D-A8C9FCC59321}">
   <dimension ref="E8:P22"/>
   <sheetViews>
@@ -11888,216 +13057,216 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="E8" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12106,38 +13275,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDFFC8-3239-46C1-B119-51B6AFCFF800}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D6AA8-6C85-4C0B-92F9-E92F7FF03AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7320A107-1900-45E4-8679-0191CCEE90AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="3045" windowWidth="34080" windowHeight="15450" firstSheet="1" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="2790" yWindow="2100" windowWidth="23610" windowHeight="15390" firstSheet="1" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -279,6 +279,90 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR21" authorId="0" shapeId="0" xr:uid="{9D7022F5-501E-4484-8117-D555F8B7C222}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Определяем есть ли группирование ниже в автоматах</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS21" authorId="0" shapeId="0" xr:uid="{48F68922-9ED8-48DB-A141-FF204B4BF323}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Определяем подключение автоматов внутри распределительного щита</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT21" authorId="0" shapeId="0" xr:uid="{6F6D8B3D-9E13-4CB4-93D3-385DB7A710AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Передо мной УУ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU21" authorId="0" shapeId="0" xr:uid="{69650E7E-E432-4DB7-8F52-112D978040B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>После меня УУ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV21" authorId="0" shapeId="0" xr:uid="{A8169036-38F0-4A46-80D5-9A1C242A4CB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Момент переключения группы, и фиксация места в диапазонне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW21" authorId="0" shapeId="0" xr:uid="{490AF9CF-70C2-4675-A756-A2627864F6F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Имена ячейки для формирования диапазона поиска 1 уровень</t>
         </r>
       </text>
     </comment>
@@ -621,7 +705,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="348">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1430,69 +1514,6 @@
     <t>Я5000</t>
   </si>
   <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>Шина1</t>
-  </si>
-  <si>
-    <t>Шина2</t>
-  </si>
-  <si>
-    <t>Аппарат1</t>
-  </si>
-  <si>
-    <t>Аппарат2</t>
-  </si>
-  <si>
-    <t>Переход1</t>
-  </si>
-  <si>
-    <t>Переход2</t>
-  </si>
-  <si>
-    <t>Кабель1</t>
-  </si>
-  <si>
-    <t>Кабель2</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>Аппарат3</t>
-  </si>
-  <si>
     <t>АВN</t>
   </si>
   <si>
@@ -1517,15 +1538,6 @@
     <t>ЩУN</t>
   </si>
   <si>
-    <t>T32</t>
-  </si>
-  <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>INTEGER_0</t>
-  </si>
-  <si>
     <t>NAME_BLOCK</t>
   </si>
   <si>
@@ -1541,15 +1553,6 @@
     <t>SCALE_Y</t>
   </si>
   <si>
-    <t>EL_VL_SCHEMA1_0</t>
-  </si>
-  <si>
-    <t>EL_VL_SCHEMA1_1</t>
-  </si>
-  <si>
-    <t>EL_VL_SCHEMA1_2</t>
-  </si>
-  <si>
     <t>Позиция по ТХ</t>
   </si>
   <si>
@@ -1719,6 +1722,42 @@
   </si>
   <si>
     <t>Имя прокладываемого кабеля</t>
+  </si>
+  <si>
+    <t>VSCHEMA_PANEL_SIDE</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMA_PANEL_IN</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMA_PANEL_OUT</t>
+  </si>
+  <si>
+    <t>VSCHEMAPhase3</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel0start</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1start</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1continue</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1finish</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2start</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2continue</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2finish</t>
+  </si>
+  <si>
+    <t>VSCHEMADevpos</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2572,37 +2611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2637,6 +2645,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2645,7 +2662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2914,6 +2931,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2962,29 +2989,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3060,45 +3099,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3106,7 +3121,49 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4037,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C1:EC24"/>
+  <dimension ref="C1:CX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CF19" sqref="CF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,13 +4127,16 @@
     <col min="51" max="52" width="7.7109375" customWidth="1"/>
     <col min="53" max="56" width="8.85546875" customWidth="1"/>
     <col min="57" max="64" width="10.42578125" customWidth="1"/>
-    <col min="65" max="69" width="3.7109375" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" customWidth="1"/>
-    <col min="71" max="71" width="28" customWidth="1"/>
-    <col min="72" max="132" width="10.42578125" customWidth="1"/>
+    <col min="65" max="75" width="3.7109375" customWidth="1"/>
+    <col min="76" max="76" width="13.5703125" customWidth="1"/>
+    <col min="77" max="77" width="10.42578125" customWidth="1"/>
+    <col min="78" max="78" width="28" customWidth="1"/>
+    <col min="79" max="84" width="10.42578125" customWidth="1"/>
+    <col min="85" max="85" width="25" customWidth="1"/>
+    <col min="86" max="101" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:131" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -4098,331 +4158,300 @@
         <v>АВС</v>
       </c>
     </row>
-    <row r="4" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D4" s="131" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
+    <row r="4" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D4" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="84" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-    </row>
-    <row r="5" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D5" s="132" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="P4" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+    </row>
+    <row r="5" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D5" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
       </c>
       <c r="I5" s="82" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="O5" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="P5" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133" t="e">
+        <v>291</v>
+      </c>
+      <c r="P5" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="133"/>
-    </row>
-    <row r="6" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D6" s="132" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="U5" s="115"/>
+    </row>
+    <row r="6" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D6" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="79" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="133" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133" t="e">
+      <c r="P6" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="133"/>
-    </row>
-    <row r="7" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D7" s="132" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="U6" s="115"/>
+    </row>
+    <row r="7" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D7" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133" t="e">
+      <c r="P7" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115" t="e">
         <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="133"/>
-    </row>
-    <row r="8" spans="4:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="132" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
+      <c r="U7" s="115"/>
+    </row>
+    <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="79" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="134">
+      <c r="P8" s="116" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="111">
         <v>0.92</v>
       </c>
-      <c r="U8" s="134"/>
-    </row>
-    <row r="9" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D9" s="132" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
+      <c r="U8" s="111"/>
+    </row>
+    <row r="9" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D9" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="79" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="P9" s="138" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-    </row>
-    <row r="10" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D10" s="132" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
+        <v>307</v>
+      </c>
+      <c r="P9" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+    </row>
+    <row r="10" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D10" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="I10" s="82" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-    </row>
-    <row r="11" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D11" s="132" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+    </row>
+    <row r="11" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D11" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="O11" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="P11" s="140" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="140">
+        <v>312</v>
+      </c>
+      <c r="P11" s="112" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="112">
         <v>0.65</v>
       </c>
-      <c r="U11" s="142"/>
-    </row>
-    <row r="12" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D12" s="132" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
+      <c r="U11" s="114"/>
+    </row>
+    <row r="12" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D12" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="79" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="I12" s="82" t="s">
         <v>222</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="P12" s="139" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139">
+        <v>316</v>
+      </c>
+      <c r="P12" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109">
         <v>44.5</v>
       </c>
-      <c r="U12" s="139"/>
-    </row>
-    <row r="13" spans="4:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="132" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
+      <c r="U12" s="109"/>
+    </row>
+    <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
       <c r="H13" s="79" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="139" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139">
+      <c r="P13" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109">
         <v>44.5</v>
       </c>
-      <c r="U13" s="139"/>
+      <c r="U13" s="109"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="52"/>
       <c r="AE13" s="52"/>
     </row>
-    <row r="14" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D14" s="132" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
+    <row r="14" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D14" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="139" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139">
+      <c r="P14" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109">
         <v>44.5</v>
       </c>
-      <c r="U14" s="139"/>
-      <c r="DH14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DI14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DJ14" s="1"/>
-      <c r="DK14" s="1"/>
-      <c r="DL14" s="1"/>
-      <c r="DM14" s="1"/>
-      <c r="DN14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DO14" s="1"/>
-      <c r="DP14" s="1"/>
-      <c r="DQ14" s="1"/>
-      <c r="DR14" s="1"/>
-      <c r="DS14" s="1"/>
-      <c r="DT14" s="1"/>
-      <c r="DU14" s="1"/>
-      <c r="DV14" s="1"/>
-      <c r="DW14" s="1"/>
-      <c r="DX14" s="1"/>
-      <c r="DY14" s="1"/>
-      <c r="DZ14" s="1"/>
-      <c r="EA14" s="1"/>
-    </row>
-    <row r="15" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="D15" s="132" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
+      <c r="U14" s="109"/>
+    </row>
+    <row r="15" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D15" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="4:131" x14ac:dyDescent="0.25">
-      <c r="DZ16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="3:133" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:102" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>100</v>
       </c>
@@ -4444,194 +4473,198 @@
       <c r="BM18" s="1"/>
       <c r="BO18" s="1"/>
     </row>
-    <row r="21" spans="3:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:102" x14ac:dyDescent="0.25">
+      <c r="BZ20" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="CA20" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="CB20" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="CC20" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="CD20" s="77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="3:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="11"/>
       <c r="BP21" s="11"/>
       <c r="BQ21" s="11"/>
-      <c r="BS21" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="BT21" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU21" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV21" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="BW21" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="DG21" t="s">
-        <v>277</v>
-      </c>
-      <c r="DI21" t="s">
-        <v>278</v>
-      </c>
-      <c r="DK21" t="s">
-        <v>279</v>
-      </c>
-      <c r="DM21" t="s">
-        <v>280</v>
-      </c>
-      <c r="DO21" t="s">
-        <v>281</v>
-      </c>
-      <c r="DQ21" t="s">
-        <v>282</v>
-      </c>
-      <c r="DS21" t="s">
-        <v>283</v>
-      </c>
-      <c r="DU21" t="s">
-        <v>284</v>
-      </c>
-      <c r="DW21" t="s">
-        <v>279</v>
-      </c>
-      <c r="DY21" t="s">
-        <v>280</v>
-      </c>
-      <c r="EA21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="3:133" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="111" t="s">
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="79"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="141"/>
+      <c r="BW21" s="141"/>
+      <c r="BX21" s="91"/>
+      <c r="BY21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:102" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="117" t="s">
+      <c r="I22" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="J22" s="128" t="s">
-        <v>357</v>
-      </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129" t="s">
-        <v>362</v>
-      </c>
-      <c r="O22" s="113" t="s">
+      <c r="J22" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138" t="s">
+        <v>335</v>
+      </c>
+      <c r="O22" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="119" t="s">
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="122" t="s">
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
+      <c r="AJ22" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="AK22" s="123"/>
-      <c r="AL22" s="123"/>
-      <c r="AM22" s="123"/>
-      <c r="AN22" s="123"/>
-      <c r="AO22" s="123"/>
-      <c r="AP22" s="123"/>
-      <c r="AQ22" s="123"/>
-      <c r="AR22" s="123"/>
-      <c r="AS22" s="123"/>
-      <c r="AT22" s="123"/>
-      <c r="AU22" s="123"/>
-      <c r="AV22" s="123"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="119" t="s">
+      <c r="AK22" s="132"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="132"/>
+      <c r="AQ22" s="132"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="132"/>
+      <c r="AT22" s="132"/>
+      <c r="AU22" s="132"/>
+      <c r="AV22" s="132"/>
+      <c r="AW22" s="133"/>
+      <c r="AX22" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="AY22" s="120"/>
-      <c r="AZ22" s="120"/>
-      <c r="BA22" s="120"/>
-      <c r="BB22" s="120"/>
-      <c r="BC22" s="120"/>
-      <c r="BD22" s="120"/>
-      <c r="BE22" s="121"/>
-      <c r="BF22" s="125" t="s">
+      <c r="AY22" s="129"/>
+      <c r="AZ22" s="129"/>
+      <c r="BA22" s="129"/>
+      <c r="BB22" s="129"/>
+      <c r="BC22" s="129"/>
+      <c r="BD22" s="129"/>
+      <c r="BE22" s="130"/>
+      <c r="BF22" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="BG22" s="126"/>
-      <c r="BH22" s="126"/>
-      <c r="BI22" s="126"/>
-      <c r="BJ22" s="126"/>
-      <c r="BK22" s="126"/>
-      <c r="BL22" s="127"/>
-      <c r="BM22" s="105" t="s">
+      <c r="BG22" s="135"/>
+      <c r="BH22" s="135"/>
+      <c r="BI22" s="135"/>
+      <c r="BJ22" s="135"/>
+      <c r="BK22" s="135"/>
+      <c r="BL22" s="136"/>
+      <c r="BM22" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="BN22" s="106"/>
-      <c r="BO22" s="106"/>
-      <c r="BP22" s="106"/>
-      <c r="BQ22" s="107"/>
-      <c r="BR22" t="s">
+      <c r="BN22" s="140"/>
+      <c r="BO22" s="140"/>
+      <c r="BP22" s="140"/>
+      <c r="BQ22" s="140"/>
+      <c r="BR22" s="140"/>
+      <c r="BS22" s="140"/>
+      <c r="BT22" s="140"/>
+      <c r="BU22" s="140"/>
+      <c r="BV22" s="140"/>
+      <c r="BW22" s="140"/>
+      <c r="BX22" s="90"/>
+      <c r="BY22" t="s">
         <v>60</v>
       </c>
-      <c r="BS22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BT22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV22" s="1">
+      <c r="BZ22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>60</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="1">
         <v>1</v>
       </c>
-      <c r="BW22" s="1">
+      <c r="CD22" s="1">
         <v>1</v>
       </c>
-      <c r="EB22" t="s">
+      <c r="CW22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:133" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="112"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
+    <row r="23" spans="3:102" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="121"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
       <c r="J23" s="85" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="K23" s="85" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="L23" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M23" s="130"/>
+        <v>333</v>
+      </c>
+      <c r="M23" s="139"/>
       <c r="O23" s="56" t="s">
         <v>126</v>
       </c>
@@ -4738,7 +4771,7 @@
         <v>183</v>
       </c>
       <c r="AX23" s="63" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="AY23" s="73" t="s">
         <v>226</v>
@@ -4782,44 +4815,33 @@
       <c r="BL23" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="BM23" s="108"/>
-      <c r="BN23" s="109"/>
-      <c r="BO23" s="109"/>
-      <c r="BP23" s="109"/>
-      <c r="BQ23" s="110"/>
-      <c r="BR23" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BT23" s="1">
-        <v>60</v>
-      </c>
-      <c r="BU23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV23" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW23" s="1">
-        <v>1</v>
-      </c>
-      <c r="EB23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="BM23" s="142"/>
+      <c r="BN23" s="140"/>
+      <c r="BO23" s="140"/>
+      <c r="BP23" s="140"/>
+      <c r="BQ23" s="140"/>
+      <c r="BR23" s="140"/>
+      <c r="BS23" s="140"/>
+      <c r="BT23" s="140"/>
+      <c r="BU23" s="140"/>
+      <c r="BV23" s="140"/>
+      <c r="BW23" s="140"/>
+      <c r="BX23" s="90"/>
+      <c r="CA23" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:102" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D24" s="64" t="str">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!P11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
         <v>GC_HDGroup</v>
       </c>
       <c r="E24" s="64" t="str">
-        <f>IF(D24="","","УЗДП")</f>
-        <v>УЗДП</v>
+        <f>IF(D24="","","АВ")</f>
+        <v>АВ</v>
       </c>
       <c r="F24" s="64">
         <f>IF(D24="","",1)</f>
@@ -5062,248 +5084,122 @@
         <f>IF('&lt;zlight&gt;DEVEXPORT'!U11="-",0,'&lt;zlight&gt;DEVEXPORT'!F11)</f>
         <v>0</v>
       </c>
-      <c r="BR24" t="s">
+      <c r="BR24" s="89">
+        <f>IF(MATCH(BM24,$BM$24:BM24,0)=COUNT($BM$24:BM24),COUNTIFS(F24:$F$120000,F24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="89">
+        <f>IF(INDEX($BR$24:BR24,MATCH(BM24,$BM$24:BM24,0))&gt;1,IF(BR24=0,2,1),IF(BR24=1,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="BT24" s="91" t="e">
+        <f>INDEX($BO$24:BO24,COUNT($BM$24:BM24)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU24" s="91">
+        <f>IF(INDEX($BO$24:$BO$120000,COUNT($BM$24:BM24))=1,IF(INDEX($BO$24:$BO$120000,COUNT($BM$24:BM24)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV24" s="91" t="e">
+        <f>IF(COUNT($BM$24:BM24)=1,1,IF(INDEX($BM$24:BM24,COUNT($BM$24:BM24)-1)=INDEX($BM$24:BM24,COUNT($BM$24:BM24)),0,COUNT($BM$24:BM24)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BW24" s="91" t="e">
+        <f>IF(BV24&gt;0,ADDRESS(ROW(),COLUMN(K24)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BX24" s="89"/>
+      <c r="BY24" t="s">
         <v>60</v>
       </c>
-      <c r="BS24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BT24" s="1">
-        <f>COUNTIF($BS$24:BS24,"*")*25+$BT$23</f>
-        <v>85</v>
-      </c>
-      <c r="BU24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV24" s="1">
+      <c r="BZ24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CA24" s="1">
+        <f>COUNTIF($BZ$24:BZ24,"*")*25+$CA$23</f>
+        <v>60</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC24" s="1">
         <v>1</v>
       </c>
-      <c r="BW24" s="1">
+      <c r="CD24" s="1">
         <v>1</v>
       </c>
-      <c r="BX24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY24" s="1" t="e">
-        <f ca="1">IF(H24="","",BC24)</f>
+      <c r="CE24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CF24" s="1" t="e">
+        <f t="shared" ref="CF24" ca="1" si="0">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CG24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CH24" s="1" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(BR24=0,IF(BS24=0,"INTEGER_3","INTEGER_"&amp;BS24),"INTEGER_"&amp;BS24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BZ24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CA24" s="1" t="e">
-        <f ca="1">IF(H24="","",BD24)</f>
+      <c r="CI24" s="143" t="s">
+        <v>341</v>
+      </c>
+      <c r="CJ24" s="1" t="str">
+        <f ca="1">IF(BO24="-","INTEGER_0",IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(K24))&amp;":"&amp;INDEX($BW$24:BW24,MAX($BV$24:BV24))),1)=1,"INTEGER_2","INTEGER_0"))</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CK24" s="143" t="s">
+        <v>342</v>
+      </c>
+      <c r="CL24" s="1" t="e">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(K24))&amp;":"&amp;INDEX($BW$24:BW24,MAX($BV$24:BV24))),1)&gt;1,"INTEGER_2","INTEGER_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CB24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CC24" s="1" t="e">
-        <f ca="1">IF(H24="","",BE24)</f>
+      <c r="CM24" s="143" t="s">
+        <v>343</v>
+      </c>
+      <c r="CN24" s="1" t="e">
+        <f ca="1">IF(I24&lt;&gt;"","INTEGER_1",IF(K24=1,"INTEGER_2","INTEGER_0"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CD24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE24" s="1" t="e">
-        <f ca="1">BJ24</f>
+      <c r="CO24" s="143" t="s">
+        <v>344</v>
+      </c>
+      <c r="CP24" s="1" t="e">
+        <f ca="1">IF(BU24=0,IF(I24&lt;&gt;"","INTEGER_0",IF(BO24="-","INTEGER_1","INTEGER_0")),"INTEGER_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CF24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG24" s="1" t="e">
-        <f ca="1">BK24</f>
+      <c r="CQ24" s="143" t="s">
+        <v>345</v>
+      </c>
+      <c r="CR24" s="1" t="str">
+        <f>IF(BU24=0,"INTEGER_0","INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CS24" s="143" t="s">
+        <v>346</v>
+      </c>
+      <c r="CT24" s="1" t="e">
+        <f ca="1">IF(BU24=0,IF(I24&lt;&gt;"",IF(BO24="-","INTEGER_5","INTEGER_0"),IF(J24=1,"INTEGER_1","INTEGER_0")),"INTEGER_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CH24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI24" t="e">
-        <f ca="1">BL24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CJ24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CK24" t="s">
-        <v>269</v>
-      </c>
-      <c r="CL24" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>269</v>
-      </c>
-      <c r="CN24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CO24" t="s">
-        <v>269</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>75</v>
-      </c>
-      <c r="CQ24" s="1" t="str">
-        <f>AJ24</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
-      </c>
-      <c r="CR24" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS24" s="1" t="e">
-        <f ca="1">IF(H24="",IF(I24="","","L="&amp;AL24&amp;"м"),"L="&amp;AL24&amp;"м")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CT24" t="s">
-        <v>270</v>
-      </c>
-      <c r="CU24" s="1"/>
-      <c r="CV24" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW24" s="1"/>
-      <c r="CX24" t="s">
-        <v>76</v>
-      </c>
-      <c r="CY24" s="1" t="str">
+      <c r="CU24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CV24" s="1" t="str">
         <f>O24</f>
         <v>Position</v>
       </c>
-      <c r="CZ24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="DA24" s="1" t="e">
-        <f ca="1">R24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DB24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC24" s="1" t="e">
-        <f ca="1">T24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DD24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DE24" s="1" t="str">
-        <f>Z24</f>
-        <v>realnamedev</v>
-      </c>
-      <c r="DF24" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DG24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DH24" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="DI24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DJ24" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="DK24" s="1" t="e">
-        <f ca="1">IF(H24="","BOOLEAN_0","BOOLEAN_1")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DL24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="DM24" s="1" t="e">
-        <f ca="1">IF(I24="","BOOLEAN_0","BOOLEAN_1")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DN24" t="s">
-        <v>276</v>
-      </c>
-      <c r="DO24" t="e">
-        <f ca="1">IF(H24="",IF(I24="","BOOLEAN_0","BOOLEAN_0"),"BOOLEAN_0")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DP24" t="s">
-        <v>82</v>
-      </c>
-      <c r="DQ24" s="1" t="e">
-        <f ca="1">IF(H24="",IF(I24="","BOOLEAN_1","BOOLEAN_0"),"BOOLEAN_0")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DR24" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DT24" t="s">
-        <v>285</v>
-      </c>
-      <c r="DU24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DV24" t="s">
-        <v>86</v>
-      </c>
-      <c r="DW24" t="e">
-        <f ca="1">IF(H24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"N",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DX24" t="s">
-        <v>295</v>
-      </c>
-      <c r="DY24" t="e">
-        <f ca="1">IF(I24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"N",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EA24" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="EB24" t="s">
+      <c r="CW24" t="s">
         <v>59</v>
       </c>
-      <c r="EC24" t="s">
+      <c r="CX24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="BM22:BQ23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="O22:Z22"/>
     <mergeCell ref="E22:E23"/>
@@ -5317,66 +5213,120 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BM22:BW23"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH24:CV24">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH24:CV24">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5448,13 +5398,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
@@ -5475,7 +5425,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>16</v>
@@ -5487,13 +5437,13 @@
         <v>18</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="45" x14ac:dyDescent="0.25">
@@ -5527,10 +5477,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>4</v>
@@ -5934,7 +5884,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5975,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6002,75 +5952,75 @@
   <sheetData>
     <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:67" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="F3" s="92" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="F3" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="K3" s="97" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="K3" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="98"/>
-      <c r="BC3" s="98"/>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="98"/>
-      <c r="BH3" s="98"/>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
     </row>
     <row r="4" spans="1:67" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -6111,7 +6061,7 @@
         <v>229</v>
       </c>
       <c r="Q4" s="53" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="R4" s="53" t="s">
         <v>200</v>
@@ -6132,7 +6082,7 @@
         <v>238</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="53" t="s">
         <v>203</v>
@@ -6153,7 +6103,7 @@
         <v>234</v>
       </c>
       <c r="AE4" s="53" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="AF4" s="53" t="s">
         <v>206</v>
@@ -6174,7 +6124,7 @@
         <v>241</v>
       </c>
       <c r="AL4" s="53" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="AM4" s="53" t="s">
         <v>209</v>
@@ -6195,7 +6145,7 @@
         <v>244</v>
       </c>
       <c r="AS4" s="53" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="AT4" s="53" t="s">
         <v>212</v>
@@ -6216,7 +6166,7 @@
         <v>247</v>
       </c>
       <c r="AZ4" s="53" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="BA4" s="53" t="s">
         <v>215</v>
@@ -6237,7 +6187,7 @@
         <v>250</v>
       </c>
       <c r="BG4" s="53" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="BH4" s="53" t="s">
         <v>218</v>
@@ -6258,7 +6208,7 @@
         <v>253</v>
       </c>
       <c r="BN4" s="53" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="BO4" s="53"/>
     </row>
@@ -6997,10 +6947,10 @@
       <c r="BO8" s="10"/>
     </row>
     <row r="9" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="99"/>
       <c r="F9" s="36">
         <v>2500</v>
       </c>
@@ -11223,11 +11173,11 @@
     </row>
     <row r="41" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="92" t="s">
+      <c r="F42" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
     </row>
     <row r="43" spans="6:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
@@ -11326,117 +11276,117 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="K6:M37 R13:W37 R6:T12 V6:AA6 V7:W12 X7:AA37 BA6:BI37 BL6:BO37 AN6:AX6 AF13:AY37 AF6:AL12 AM8:AM12 AN7:AY12">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M38 R38:AA38 AF38:AG38">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38:AN38">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38:BI38 BL38:BO38">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q37">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:Q38">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AC15">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AE38">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AB37">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC37">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AE6 AD7 AE7:AE15">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD11">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AD14">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:AE36 AD15">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37:AE37">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ6:BJ37">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ38">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK6:BK37">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK38">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM6:AM7">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11457,41 +11407,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="99"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="102"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -12432,49 +12382,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -12970,20 +12920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -13057,216 +13007,216 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
